--- a/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
+++ b/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
@@ -42,360 +42,361 @@
     <t>Italian</t>
   </si>
   <si>
+    <t>InterviewIntro</t>
+  </si>
+  <si>
+    <t>You wanted to see me?</t>
+  </si>
+  <si>
+    <t>Volevi vedermi?</t>
+  </si>
+  <si>
+    <t>RoleReveal</t>
+  </si>
+  <si>
+    <t>What role do you think you can do well in?</t>
+  </si>
+  <si>
+    <t>Quale ruolo pensi di poter ricoprire meglio?</t>
+  </si>
+  <si>
+    <t>StatReveal</t>
+  </si>
+  <si>
+    <t>Tell me more about your skillset</t>
+  </si>
+  <si>
+    <t>Descrivimi le tue capacità</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveQuestion</t>
+  </si>
+  <si>
+    <t>Are you getting on well with any of your teammates?</t>
+  </si>
+  <si>
+    <t>Vai d'accordo con qualcuno dei tuoi compagni?</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeQuestion</t>
+  </si>
+  <si>
+    <t>Is there any conflict between you and someome else on the team?</t>
+  </si>
+  <si>
+    <t>C'è qualche conflitto tra te e qualcuno dei tuoi compagni?</t>
+  </si>
+  <si>
+    <t>StatRevealBad</t>
+  </si>
+  <si>
+    <t>My {0} is one of my weaknesses.</t>
+  </si>
+  <si>
+    <t>La/il mia/o  {0} è uno dei miei punti deboli</t>
+  </si>
+  <si>
+    <t>StatRevealMiddle</t>
+  </si>
+  <si>
+    <t>My {0} is fairly average.</t>
+  </si>
+  <si>
+    <t>La/il mia/o {0} è nella media</t>
+  </si>
+  <si>
     <t>PWAvoidingAvoidingLP</t>
   </si>
   <si>
+    <t>StatRevealGood</t>
+  </si>
+  <si>
+    <t>My {0} is one of my strongest areas.</t>
+  </si>
+  <si>
+    <t>La/il mia/o  {0} è uno dei miei punti di forza</t>
+  </si>
+  <si>
     <t>In this exchange you have avoided addressing the problem. As a result, you have not considered their needs of your player and raised questions about how you deal with your responsibilities.</t>
   </si>
   <si>
+    <t>RoleRevealGood</t>
+  </si>
+  <si>
+    <t>{0} is one of my better roles, so feel free to consider me for that place.</t>
+  </si>
+  <si>
+    <t>{0} è uno dei ruoli più adatti a me, quindi tienimi in considerazione per ricoprirlo.</t>
+  </si>
+  <si>
+    <t>RoleRevealBad</t>
+  </si>
+  <si>
+    <t>You don't want to put me in as {0}, I won't do very well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non mettermi nel ruolo di {0}, non sarei adatto. </t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveAnswer</t>
+  </si>
+  <si>
+    <t>I somewhat get along with {0}.</t>
+  </si>
+  <si>
+    <t>Vado abbastanza d'accordo con {0}.</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeAnswer</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Myself and {0} aren't on the best of terms.</t>
+  </si>
+  <si>
+    <t>Io e {0} non siamo proprio migliori amici</t>
+  </si>
+  <si>
+    <t>I need to speak to you about something.</t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveHigh</t>
+  </si>
+  <si>
+    <t>I'm good friends with {0}.</t>
+  </si>
+  <si>
+    <t>{0} è un buon amico/a</t>
+  </si>
+  <si>
+    <t>OpinionRevealNegativeHigh</t>
+  </si>
+  <si>
+    <t>I don't get along with {0} at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non vado assolutamente d'accordo con {0} </t>
+  </si>
+  <si>
+    <t>OpinionRevealPositiveNone</t>
+  </si>
+  <si>
+    <t>Nobody comes to mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non mi viene in mente nessuno. </t>
+  </si>
+  <si>
     <t xml:space="preserve">In questo scambio hai evitato di affrontare il problema posticipandolo. In questo modo non hai considerato le esigenze del tuo giocatore e al tempo stesso non ti sei interrogato sulle tue responsabilità. </t>
   </si>
   <si>
+    <t>OpinionRevealNegativeNone</t>
+  </si>
+  <si>
+    <t>None come to mind, thankfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non mi viene in mente nessuno, per fortuna. </t>
+  </si>
+  <si>
+    <t>Avrei bisogno di parlarti.</t>
+  </si>
+  <si>
+    <t>PWAvoiding</t>
+  </si>
+  <si>
+    <t>Sorry, I've got no time at the moment.</t>
+  </si>
+  <si>
+    <t>Scusa in questo momento non ho tempo.</t>
+  </si>
+  <si>
+    <t>PWCompeting</t>
+  </si>
+  <si>
+    <t>What do you want?</t>
+  </si>
+  <si>
+    <t>Cosa vuoi?</t>
+  </si>
+  <si>
+    <t>PWAccomodating</t>
+  </si>
+  <si>
     <t>PWCompetingCompetingLP</t>
   </si>
   <si>
-    <t>
-Yourt forceful remarks has led to the conversation closing without the issue being addressed.</t>
+    <t>Tell me everything, you know I'm always available.</t>
+  </si>
+  <si>
+    <t>Your forceful remarks has led to the conversation closing without the issue being addressed.</t>
+  </si>
+  <si>
+    <t>Dimmi tutto, sai che sono sempre a tua disposizione.</t>
   </si>
   <si>
     <t xml:space="preserve">Il rimarcare il tuo potere ha portato a una chiusura con il risultato che il problema non è stato affrontato. </t>
   </si>
   <si>
+    <t>PWCollaborating</t>
+  </si>
+  <si>
     <t>PWAccomodatingAccomodatingLP</t>
   </si>
   <si>
-    <t>InterviewIntro</t>
-  </si>
-  <si>
-    <t>
-In this exchange you have aimed to adapt to the requirements of the player. While on the one hand this has led to their satisfaction, it also means you have surrendered to their point of view.</t>
-  </si>
-  <si>
-    <t>PW</t>
+    <t>Sure, I had a feeling there was something that needed confronting.</t>
+  </si>
+  <si>
+    <t>Certo, avevo la sensazione che dovessimo confrontarci.</t>
+  </si>
+  <si>
+    <t>PWNP1</t>
+  </si>
+  <si>
+    <t>In this exchange you have aimed to adapt to the requirements of the player. While on the one hand this has led to their satisfaction, it also means you have surrendered to their point of view.</t>
+  </si>
+  <si>
+    <t>You never have time!</t>
+  </si>
+  <si>
+    <t>Non hai mai tempo.</t>
   </si>
   <si>
     <t xml:space="preserve">In questo scambio hai adottao un approccio rivolto ad assecondare le richieste del giocatore. Questo se da un lato ha portato alla sua soddisfazione, dall'altro denota un arrendersi al punto di vista dell'altro. </t>
   </si>
   <si>
-    <t>You wanted to see me?</t>
-  </si>
-  <si>
-    <t>I need to speak to you about something.</t>
+    <t>PWNP2</t>
+  </si>
+  <si>
+    <t>I only need ten minutes of your time.</t>
   </si>
   <si>
     <t>PWCollaboratingAvoidingLP</t>
   </si>
   <si>
-    <t>Volevi vedermi?</t>
-  </si>
-  <si>
-    <t>RoleReveal</t>
+    <t>Ho solo bisogno di 10 minuti del tuo tempo</t>
+  </si>
+  <si>
+    <t>PWNP3</t>
   </si>
   <si>
     <t>At the beginning you tried to cooperate with the player and understand their requests, but in the end you ended the dialogue remaining vague and not taking a definite position.</t>
   </si>
   <si>
-    <t>What role do you think you can do well in?</t>
-  </si>
-  <si>
-    <t>Quale ruolo pensi di poter ricoprire meglio?</t>
-  </si>
-  <si>
-    <t>StatReveal</t>
-  </si>
-  <si>
-    <t>Tell me more about your skillset</t>
-  </si>
-  <si>
-    <t>Descrivimi le tue capacità</t>
+    <t>In the last race it didn't feel like you put me in the right position. I would have preferred to have been in the {0} role.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nell'ultima gara non mi sentivo adeguato al ruolo che mi hai assegnato, avrei preferito il ruolo di {0}. </t>
+  </si>
+  <si>
+    <t>PWNP4</t>
   </si>
   <si>
     <t xml:space="preserve">All'inizio hai provato a cooperare con il giocatore cercando di capire le sue richieste ma hai chiuso il dialogo rimanendo vago senza prendere una posizione precisa. </t>
   </si>
   <si>
-    <t>Avrei bisogno di parlarti.</t>
+    <t>In the last race it felt like I was in the wrong position.</t>
   </si>
   <si>
     <t>PWAvoidingCollaboratingCollaboratingLP</t>
   </si>
   <si>
-    <t>PWAvoiding</t>
+    <t>Nell'ultima gara non mi sentivo adeguato al ruolo che mi hai assegnato.</t>
   </si>
   <si>
     <t>After initially trying to delay the problem, you have sought to cooperate with the player in order to find a solution.</t>
   </si>
   <si>
-    <t>Sorry, I've got no time at the moment.</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveQuestion</t>
-  </si>
-  <si>
-    <t>Are you getting on well with any of your teammates?</t>
-  </si>
-  <si>
-    <t>Scusa in questo momento non ho tempo.</t>
-  </si>
-  <si>
-    <t>Vai d'accordo con qualcuno dei tuoi compagni?</t>
-  </si>
-  <si>
-    <t>PWCompeting</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeQuestion</t>
-  </si>
-  <si>
-    <t>What do you want?</t>
-  </si>
-  <si>
-    <t>Cosa vuoi?</t>
-  </si>
-  <si>
-    <t>Is there any conflict between you and someome else on the team?</t>
-  </si>
-  <si>
-    <t>PWAccomodating</t>
-  </si>
-  <si>
-    <t>C'è qualche conflitto tra te e qualcuno dei tuoi compagni?</t>
-  </si>
-  <si>
-    <t>Tell me everything, you know I'm always available.</t>
-  </si>
-  <si>
-    <t>StatRevealBad</t>
-  </si>
-  <si>
-    <t>My {0} is one of my weaknesses.</t>
-  </si>
-  <si>
-    <t>Dimmi tutto, sai che sono sempre a tua disposizione.</t>
-  </si>
-  <si>
-    <t>La/il mia/o  {0} è uno dei miei punti deboli</t>
-  </si>
-  <si>
-    <t>StatRevealMiddle</t>
-  </si>
-  <si>
-    <t>PWCollaborating</t>
-  </si>
-  <si>
-    <t>My {0} is fairly average.</t>
-  </si>
-  <si>
-    <t>La/il mia/o {0} è nella media</t>
+    <t>PWAvoidingAvoiding</t>
   </si>
   <si>
     <t xml:space="preserve">Dopo aver inizialmente tentato di posticipare il problema, hai cercato di cooperare con il giocatore concordando un momento di scambio per trovare una soluzione. </t>
   </si>
   <si>
-    <t>Sure, I had a feeling there was something that needed confronting.</t>
-  </si>
-  <si>
-    <t>StatRevealGood</t>
+    <t>Don't worry, we'll find a moment to talk at some point.</t>
+  </si>
+  <si>
+    <t>Stai tranquillo troveremo senz'altro un momento per parlare…</t>
   </si>
   <si>
     <t>PWAvoidingCollaboratingAvoidingLP</t>
   </si>
   <si>
-    <t>My {0} is one of my strongest areas.</t>
-  </si>
-  <si>
-    <t>Certo, avevo la sensazione che dovessimo confrontarci.</t>
-  </si>
-  <si>
-    <t>La/il mia/o  {0} è uno dei miei punti di forza</t>
-  </si>
-  <si>
-    <t>
-The beginning and the end of the conversation are characterized from ignoring the problem diplomatically and leaving it undealt with.</t>
-  </si>
-  <si>
-    <t>PWNP1</t>
-  </si>
-  <si>
-    <t>RoleRevealGood</t>
-  </si>
-  <si>
-    <t>You never have time!</t>
-  </si>
-  <si>
-    <t>{0} is one of my better roles, so feel free to consider me for that place.</t>
-  </si>
-  <si>
-    <t>Non hai mai tempo.</t>
-  </si>
-  <si>
-    <t>{0} è uno dei ruoli più adatti a me, quindi tienimi in considerazione per ricoprirlo.</t>
-  </si>
-  <si>
-    <t>PWNP2</t>
+    <t>PWAvoidingCollaborating</t>
+  </si>
+  <si>
+    <t>If we're lucky, we can talk about it after the next practice session?</t>
+  </si>
+  <si>
+    <t>The beginning and the end of the conversation are characterized from ignoring the problem diplomatically and leaving it undealt with.</t>
+  </si>
+  <si>
+    <t>Ti va bene se ne parliamo domani dopo l'allenamento?</t>
   </si>
   <si>
     <t xml:space="preserve">L'inizio e la fine del confronto sono caratterizzati dall'ignorare diplomaticamente il problema lascinadolo in sospeso. </t>
   </si>
   <si>
-    <t>I only need ten minutes of your time.</t>
-  </si>
-  <si>
-    <t>RoleRevealBad</t>
-  </si>
-  <si>
-    <t>Ho solo bisogno di 10 minuti del tuo tempo</t>
-  </si>
-  <si>
-    <t>You don't want to put me in as {0}, I won't do very well.</t>
-  </si>
-  <si>
-    <t>PWNP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non mettermi nel ruolo di {0}, non sarei adatto. </t>
-  </si>
-  <si>
-    <t>In the last race it didn't feel like you put me in the right position. I would have preferred to have been in the {0} role.</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveAnswer</t>
-  </si>
-  <si>
-    <t>I somewhat get along with {0}.</t>
+    <t>PWCompetingCompeting</t>
   </si>
   <si>
     <t>PWCompetingAccomodatingAccomodatingLP</t>
   </si>
   <si>
-    <t xml:space="preserve">Nell'ultima gara non mi sentivo adeguato al ruolo che mi hai assegnato, avrei preferito il ruolo di {0}. </t>
-  </si>
-  <si>
-    <t>Vado abbastanza d'accordo con {0}.</t>
-  </si>
-  <si>
-    <t>PWNP4</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeAnswer</t>
-  </si>
-  <si>
-    <t>In the last race it felt like I was in the wrong position.</t>
-  </si>
-  <si>
-    <t>Myself and {0} aren't on the best of terms.</t>
-  </si>
-  <si>
-    <t>Nell'ultima gara non mi sentivo adeguato al ruolo che mi hai assegnato.</t>
-  </si>
-  <si>
-    <t>Io e {0} non siamo proprio migliori amici</t>
-  </si>
-  <si>
-    <t>PWAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveHigh</t>
-  </si>
-  <si>
-    <t>I'm good friends with {0}.</t>
-  </si>
-  <si>
-    <t>{0} è un buon amico/a</t>
-  </si>
-  <si>
-    <t>Don't worry, we'll find a moment to talk at some point.</t>
-  </si>
-  <si>
-    <t>OpinionRevealNegativeHigh</t>
-  </si>
-  <si>
-    <t>Stai tranquillo troveremo senz'altro un momento per parlare…</t>
-  </si>
-  <si>
-    <t>
-Starting with little openness, you eventually decided to try and satisfy their demands. While on the one hand this has led to their satisfaction, it also means you have surrendered to their point of view.</t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaborating</t>
-  </si>
-  <si>
-    <t>I don't get along with {0} at all.</t>
-  </si>
-  <si>
-    <t>If we're lucky, we can talk about it after the next practice session?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non vado assolutamente d'accordo con {0} </t>
-  </si>
-  <si>
-    <t>Ti va bene se ne parliamo domani dopo l'allenamento?</t>
-  </si>
-  <si>
-    <t>OpinionRevealPositiveNone</t>
-  </si>
-  <si>
-    <t>PWCompetingCompeting</t>
-  </si>
-  <si>
-    <t>Nobody comes to mind.</t>
-  </si>
-  <si>
     <t>Ten? You'll be lucky if I give you one!</t>
   </si>
   <si>
-    <t xml:space="preserve">Non mi viene in mente nessuno. </t>
-  </si>
-  <si>
     <t>Dieci??Te ne do al massimo uno!!</t>
   </si>
   <si>
-    <t>OpinionRevealNegativeNone</t>
+    <t>PWCompetingAccomodating</t>
+  </si>
+  <si>
+    <t>Starting with little openness, you eventually decided to try and satisfy their demands. While on the one hand this has led to their satisfaction, it also means you have surrendered to their point of view.</t>
+  </si>
+  <si>
+    <t>I'm in a bit of a rush, but I can give you ten minutes.</t>
+  </si>
+  <si>
+    <t>Sono di corsa ma dieci minuti riesco a trovarli.</t>
   </si>
   <si>
     <t xml:space="preserve">Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un approccio maggiormente rivolto ad assecondare le sue richieste. Questo se da un lato ha portato alla soddisfazione del giocatore, dall'altro denota una arrendersi al punto di vista dell'altro. </t>
   </si>
   <si>
-    <t>PWCompetingAccomodating</t>
-  </si>
-  <si>
-    <t>None come to mind, thankfully.</t>
-  </si>
-  <si>
-    <t>I'm in a bit of a rush, but I can give you ten minutes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non mi viene in mente nessuno, per fortuna. </t>
-  </si>
-  <si>
-    <t>Sono di corsa ma dieci minuti riesco a trovarli.</t>
-  </si>
-  <si>
     <t>PWAccomodatingAccomodating</t>
   </si>
   <si>
+    <t>OK, next time I'll make sure you go into that role instead.</t>
+  </si>
+  <si>
     <t>PWCompetingAccomodatingCompetingLP</t>
   </si>
   <si>
-    <t>OK, next time I'll make sure you go into that role instead.</t>
-  </si>
-  <si>
     <t>La prossima volta giocherai nel ruolo che desideri.</t>
   </si>
   <si>
     <t>PWAccomodatingCompeting</t>
   </si>
   <si>
+    <t>Starting with little openness, you attempted to comply with their demands, but in the end escalated with a lack of interest in what they had to say.</t>
+  </si>
+  <si>
     <t>If that's the issue, then I have nothing to discuss with you.</t>
   </si>
   <si>
     <t>Se la questione è questa non ho nessuna intenzione di discuterne.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un tentativo maggiormente rivolto ad assecondare le sue richieste che tuttavia non ha avuto seguito con un escalation verso un atteggiamento di disinteresse e sufficienza. </t>
+  </si>
+  <si>
     <t>PWCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>
-Starting with little openness, you attempted to comply with their demands, but in the end escalated with a lack of interest in what they had to say.</t>
+    <t>PWAccomodatingCompetingCompetingLP</t>
   </si>
   <si>
     <t>Why do you think that?</t>
@@ -404,12 +405,18 @@
     <t>Spiegami perché.</t>
   </si>
   <si>
+    <t>After an initial willingness towards to discuss, you decided to emphasize your power, leading to the conversation closing with the problem unaddressed.</t>
+  </si>
+  <si>
     <t>PWCollaboratingAvoiding</t>
   </si>
   <si>
     <t>Let's not worry about that in the short term.</t>
   </si>
   <si>
+    <t xml:space="preserve">Dopo un' iniziale disponibilità verso il giocatore,  hai voluto rimarcare il tuo potere portando a una chiusura con il risultato che il problema non è stato affrontato. </t>
+  </si>
+  <si>
     <t>Vediamo di affrontare la questione a breve.</t>
   </si>
   <si>
@@ -422,7 +429,7 @@
     <t>Sicuramente..</t>
   </si>
   <si>
-    <t xml:space="preserve">Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un tentativo maggiormente rivolto ad assecondare le sue richieste che tuttavia non ha avuto seguito con un escalation verso un atteggiamento di disinteresse e sufficienza. </t>
+    <t>PWAccomodatingCompetingAccomodatingLP</t>
   </si>
   <si>
     <t>PWNP11</t>
@@ -431,10 +438,13 @@
     <t>Let me think about it.</t>
   </si>
   <si>
+    <t>The exchange opens and closes with a view to meeting both their demands and that of the rest of the team.</t>
+  </si>
+  <si>
     <t>Fammici pensare.</t>
   </si>
   <si>
-    <t>PWAccomodatingCompetingCompetingLP</t>
+    <t>Lo scambio si apre e si chiude con un atteggiamento volto ad assecondare le richieste del giocatore mettendo da parte il proprio punto di vista e quello della squadra.</t>
   </si>
   <si>
     <t>PWCompetingCompetingResponse</t>
@@ -446,9 +456,18 @@
     <t>Tienitelo!!</t>
   </si>
   <si>
+    <t>PWCollaboratingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
     <t>PWNP21</t>
   </si>
   <si>
+    <t>You have tried to cooperate with the player to find a solution that meets the needs of all parties involved. Your interaction highlights attention to the exploration of the conflict.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai cercato di cooperare con il giocatore per trovare una soluzione capace di soddisfare i bisogni di tutte le parti coinvolte. La tua interazione evidenzia attenzione all'esplorazione del conflitto. </t>
+  </si>
+  <si>
     <t>PWAccomodatingAccomodatingResponse</t>
   </si>
   <si>
@@ -458,15 +477,18 @@
     <t>Grazie!</t>
   </si>
   <si>
+    <t>PWCollaboratingCollaboratingAvoidingLP</t>
+  </si>
+  <si>
     <t>PWNP31</t>
   </si>
   <si>
-    <t>After an initial willingness towards to discuss, you decided to emphasize your power, leading to the conversation closing with the problem unaddressed.</t>
-  </si>
-  <si>
     <t>But... you said you were always available if something was wrong!</t>
   </si>
   <si>
+    <t>At the beginning you tried to cooperate with the player, trying to understand their requests, but you closed the dialogue remaining vague and without taking a definite position.</t>
+  </si>
+  <si>
     <t>Ci hai sempre detto di venire a parlarti se qualcosa non va.</t>
   </si>
   <si>
@@ -479,68 +501,40 @@
     <t>Perché per le mie caratteristiche fisiche non mi sento adatto al ruolo di {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Dopo un' iniziale disponibilità verso il giocatore,  hai voluto rimarcare il tuo potere portando a una chiusura con il risultato che il problema non è stato affrontato. </t>
-  </si>
-  <si>
     <t>PWCollaboratingAvoidingResponse</t>
   </si>
   <si>
     <t>As always.</t>
   </si>
   <si>
-    <t>PWAccomodatingCompetingAccomodatingLP</t>
-  </si>
-  <si>
     <t>Come sempre.</t>
   </si>
   <si>
     <t>PWAvoidingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>The exchange opens and closes with a view to meeting both their demands and that of the rest of the team.</t>
-  </si>
-  <si>
     <t>OK, we'll take half an hour to talk about it after the next session.</t>
   </si>
   <si>
     <t>Dai che domani ci prendiamo mezz'ora.</t>
   </si>
   <si>
-    <t>Lo scambio si apre e si chiude con un atteggiamento volto ad assecondare le richieste del giocatore mettendo da parte il proprio punto di vista e quello della squadra.</t>
-  </si>
-  <si>
     <t>PWAvoidingCollaboratingAvoiding</t>
   </si>
   <si>
     <t>Think in peace.</t>
   </si>
   <si>
-    <t>PWCollaboratingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
     <t>Pensaci in tutta tranquillità.</t>
   </si>
   <si>
     <t>PWCompetingAccomodatingAccomodating</t>
   </si>
   <si>
-    <t>
-You have tried to cooperate with the player to find a solution that meets the needs of all parties involved. Your interaction highlights attention to the exploration of the conflict.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai cercato di cooperare con il giocatore per trovare una soluzione capace di soddisfare i bisogni di tutte le parti coinvolte. La tua interazione evidenzia attenzione all'esplorazione del conflitto. </t>
-  </si>
-  <si>
     <t>PWCompetingAccomodatingCompeting</t>
   </si>
   <si>
-    <t>PWCollaboratingCollaboratingAvoidingLP</t>
-  </si>
-  <si>
     <t>PWAccomodatingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>At the beginning you tried to cooperate with the player, trying to understand their requests, but you closed the dialogue remaining vague and without taking a definite position.</t>
   </si>
   <si>
     <t>Enough, I'm the one who makes the decisions in this team.</t>
@@ -744,11 +738,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF212121"/>
       <name val="Inherit"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
     <font/>
   </fonts>
@@ -784,20 +778,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -855,365 +849,365 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="27.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>91</v>
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>103</v>
+      <c r="A13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>110</v>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>121</v>
+      <c r="B17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>124</v>
+      <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>83</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>155</v>
+      <c r="A27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>160</v>
+      <c r="A28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1221,10 +1215,10 @@
       <c r="A35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1232,10 +1226,10 @@
       <c r="A36" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1243,21 +1237,21 @@
       <c r="A37" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>139</v>
+      <c r="B37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="38" ht="28.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1265,10 +1259,10 @@
       <c r="A39" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1276,21 +1270,21 @@
       <c r="A40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>139</v>
+      <c r="B40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1298,17 +1292,17 @@
       <c r="A42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
@@ -6129,134 +6123,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>151</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6292,200 +6286,200 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>88</v>
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>96</v>
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>102</v>
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>109</v>
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
@@ -11398,7 +11392,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="2" max="2" width="36.14"/>
+    <col customWidth="1" min="2" max="2" width="41.14"/>
     <col customWidth="1" min="3" max="3" width="46.43"/>
     <col customWidth="1" min="4" max="22" width="14.43"/>
   </cols>
@@ -11415,68 +11409,68 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -11484,32 +11478,32 @@
       <c r="A8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -11517,68 +11511,68 @@
       <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>

--- a/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
+++ b/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
@@ -381,10 +381,10 @@
     <t>PWAvoidingCollaboratingCollaborating</t>
   </si>
   <si>
-    <t>OK, we'll take half an hour to talk about it after the next session.</t>
-  </si>
-  <si>
-    <t>Dai che domani ci prendiamo mezz'ora.</t>
+    <t>OK, we'll take half an hour to talk about it as soon as possible.</t>
+  </si>
+  <si>
+    <t>Ci prendiamo mezz'ora il prima possibile.</t>
   </si>
   <si>
     <t>PWAvoidingCollaboratingAvoiding</t>
@@ -1020,7 +1020,7 @@
     <t>You're always right...</t>
   </si>
   <si>
-    <t>Hai sempre ragione tu.</t>
+    <t>Hai sempre ragione tu!</t>
   </si>
   <si>
     <t>NotPickedNP21</t>
@@ -1107,7 +1107,7 @@
     <t>Before the next race, we'll take a bit of time to analyze the issue.</t>
   </si>
   <si>
-    <t>Ti va bene se mercoledì dopo l'allenamento ci prendiamo un po’ di tempo per analizzare la questione.</t>
+    <t>Ti va bene se dopo l'allenamento ci prendiamo un po’ di tempo per analizzare la questione.</t>
   </si>
   <si>
     <t>NotPickedAccommodatingCollaboratingAccommodating</t>
@@ -3322,7 +3322,7 @@
       <c r="B27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
       <c r="B31" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>319</v>
       </c>
     </row>

--- a/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
+++ b/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
@@ -2253,7 +2253,7 @@
     <t>OOAvoidingAccommodatingAccommodatingLP</t>
   </si>
   <si>
-    <t>After an initial lack of considering the issue at hand, you decided to accomodanate the demands of the crew member without considering the implications of your choice.</t>
+    <t>After an initial lack of considering the issue at hand, you decided to accommodate the demands of the crew member without considering the implications of your choice.</t>
   </si>
   <si>
     <t xml:space="preserve">A un' iniziale scarsa considerazione del problema, è seguito un comportamento accomodanate rivolto ad assecondare esclusivamente  le richieste del giocatore senza entrare nel merito delle implicazione della scelta. </t>
@@ -2436,7 +2436,7 @@
     <t>IPCAvoidingAccommodatingAccommodatingLP</t>
   </si>
   <si>
-    <t>The prevailing behaviour in the end was to accomodanate the request for help, getting personally involved in the problem without thinking about the merits of doing so.</t>
+    <t>The prevailing behaviour in the end was to accommodate the request for help, getting personally involved in the problem without thinking about the merits of doing so.</t>
   </si>
   <si>
     <t xml:space="preserve">E' prevalso un comportamento accomodanate dove ti sei fatto carico in prima persona del problema senza creare le condizioni per entrare nel merito della questione. </t>

--- a/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
+++ b/stm-unity/Assets/Resources/Localization/Sports Team Manager Scenario Localization.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="916">
   <si>
     <t>Key</t>
   </si>
@@ -498,7 +498,7 @@
     <t>Thought I'd let you know that I don't want to be picked for the next race if you choose {0}.</t>
   </si>
   <si>
-    <t>Mister, se alla prossima gara sceglerai {0} sappi che io non giocherò.</t>
+    <t>Mister, se alla prossima gara sceglierai {0} sappi che io non giocherò.</t>
   </si>
   <si>
     <t>OOAvoiding</t>
@@ -702,7 +702,7 @@
     <t>I might not be, but I'm passionate and care about the team!</t>
   </si>
   <si>
-    <t>Sarà ma almeno alla sqaudra ci tengo.</t>
+    <t>Sarà ma almeno alla squadra ci tengo.</t>
   </si>
   <si>
     <t>OOAvoidingAccommodatingAccommodating</t>
@@ -915,16 +915,16 @@
     <t>Given the chance I think I'd do best in the {0} position.</t>
   </si>
   <si>
-    <t>Per le mie caratteristiche vorrei giocare nell ruolo di {0}.</t>
+    <t>Per le mie caratteristiche vorrei giocare nel ruolo di {0}.</t>
   </si>
   <si>
     <t>NotPickedAvoidingAvoiding</t>
   </si>
   <si>
-    <t>The relationship between player and coach should be based on trust...</t>
-  </si>
-  <si>
-    <t>Il rapporto tra il giocatore e il coach dovrebbe basarsi sulla fiducia…</t>
+    <t>This time I ask you to have confidence in me. You'll see that I'll do well.</t>
+  </si>
+  <si>
+    <t>Questa volta ti chiedo di avere piena fiducia in me. Vedrai che ti accontenterò.</t>
   </si>
   <si>
     <t>NotPickedAvoidingCompeting</t>
@@ -960,36 +960,538 @@
     <t>You're ready, I'll try and put you in for the next race.</t>
   </si>
   <si>
+    <t>PWAvoidingAvoidingLP</t>
+  </si>
+  <si>
+    <t>In this conversation you avoided addressing the problem. As a result, you did not consider the needs of your crew member and raised questions about how well you deal with your responsibilities.</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>You need to do something, I can't bear {0} any longer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non ce la faccio più a sopportare {0}, devi trovare una soluzione. </t>
+  </si>
+  <si>
+    <t>IPCAvoiding</t>
+  </si>
+  <si>
+    <t>Calm down and tell me why you're upset.</t>
+  </si>
+  <si>
+    <t>Tranquillizzati perché sei così agitato?</t>
+  </si>
+  <si>
+    <t>In questo scambio hai evitato di affrontare il problema posticipandolo. 
+In questo modo non hai considerato le esigenze del tuo giocatore e al tempo stesso non ti sei interrogato sulle tue responsabilità. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di abbassare la motivazione dei giocatori.</t>
+  </si>
+  <si>
+    <t>IPCCompeting</t>
+  </si>
+  <si>
+    <t>This is still an issue?</t>
+  </si>
+  <si>
+    <t>Ancora con questa storia, non l'hai ancora risolta?</t>
+  </si>
+  <si>
+    <t>IPCAccommodating</t>
+  </si>
+  <si>
+    <t>Take a breath and tell me why.</t>
+  </si>
+  <si>
+    <t>Prendi fiato, raccontami?</t>
+  </si>
+  <si>
+    <t>IPCCollaborating</t>
+  </si>
+  <si>
+    <t>Let's talk. What happened?</t>
+  </si>
+  <si>
+    <t>Parliamone un attimo, siediti, cos'è successo?</t>
+  </si>
+  <si>
+    <t>IPCNP1</t>
+  </si>
+  <si>
+    <t>You know that {0} can't stand anybody.</t>
+  </si>
+  <si>
+    <t>Sai che {0} non lo sopporta nessuno.</t>
+  </si>
+  <si>
+    <t>IPCNP2</t>
+  </si>
+  <si>
+    <t>{0} thinks only about themselves and not the good of the team.</t>
+  </si>
+  <si>
+    <t>{0} pensa solo a mettere in luce se stesso e non pensa al bene della squadra.</t>
+  </si>
+  <si>
+    <t>IPCNP3</t>
+  </si>
+  <si>
+    <t>If I'm here talking about it, obviously.</t>
+  </si>
+  <si>
+    <t>Se sono qua non l'ho ancora risolta.</t>
+  </si>
+  <si>
+    <t>IPCNP4</t>
+  </si>
+  <si>
+    <t>I've already tried to resolve this many times before...</t>
+  </si>
+  <si>
+    <t>PWCompetingCompetingLP</t>
+  </si>
+  <si>
+    <t>Your forceful remarks led to the conversation finishing without the issue being addressed.</t>
+  </si>
+  <si>
+    <t>Io credo di averci provato in tutti i modi…</t>
+  </si>
+  <si>
+    <t>Hai concluso questa interazione rimarcando il tuo potere. Questo ha portato a un’assenza di transazioni con il risultato che il problema non è stato affrontato. Un simile atteggiamento potrebbe essere efficace in situazioni in cui vuoi provocare nell’altro una reazione o problemi più importanti devono essere affrontati e hanno quindi la priorità.</t>
+  </si>
+  <si>
+    <t>IPCNP5</t>
+  </si>
+  <si>
+    <t>{0} does not miss a chance to criticize me in front of others.</t>
+  </si>
+  <si>
+    <t>{0} non perde occasione per criticarmi davanti agli altri</t>
+  </si>
+  <si>
+    <t>IPCNP6</t>
+  </si>
+  <si>
+    <t>{0} thinks only about themselves and it's reflecting badly on the team.</t>
+  </si>
+  <si>
+    <t>{0} pensa solo a mettere in luce se stesso e tutta la squadra ne sta risentendo molto</t>
+  </si>
+  <si>
+    <t>IPCNP7</t>
+  </si>
+  <si>
+    <t>PWAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>Today during the race they insulted {1} several times and began to give instructions left, right and centre.</t>
+  </si>
+  <si>
+    <t>In this conversation you aimed to adapt to the requirements of the crew member. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In questo scambio hai adottato un approccio rivolto ad assecondare le richieste del giocatore. Hai puntato sull'ammirazione, il rispetto e la fiducia che il giocatore ha verso di te. Tieni presente che un coach può agire in questo modo se considera le necessità dei giocatori e si comporta in modo coerente e non arbitrario. </t>
+  </si>
+  <si>
+    <t>PWCollaboratingAvoidingLP</t>
+  </si>
+  <si>
+    <t>At the beginning you tried to cooperate with the crew member and understand their requests, but in the end you finished the conversation remaining vague and not taking a definite position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oggi durante la gara ha insultato più volte {1} e si è messo a dare istruzioni a destra e a manca. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All'inizio hai provato a cooperare con il giocatore cercando di capire le sue richieste ma hai chiuso il dialogo rimanendo vago senza prendere una posizione precisa.
+In alcuni casi, prendere tempo può essere la strategia giusta soprattutto se hai fiducia che i membri del gruppo siano in grado di gestire autonomamente il conflitto. Attenzione ad essere un punto di riferimento nei momenti di incertezza. </t>
+  </si>
+  <si>
+    <t>IPCNP8</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
+    <t>{0} only does what they want and does not bother to coordinate with others.</t>
+  </si>
+  <si>
+    <t>After initially trying to delay dealing with the problem, you sought to cooperate with the crew member in order to find a solution.</t>
+  </si>
+  <si>
+    <t>{0} pensa solo a fare il suo e non si preoccupa di coordinarsi con gli altri.</t>
+  </si>
+  <si>
+    <t>Dopo aver inizialmente tentato di posticipare il problema, hai cercato di cooperare con il giocatore concordando un momento di scambio per trovare una soluzione. Un simile atteggiamento è adeguato quando è necessario definire i problemi e ricercare soluzioni comuni. Tutto questo richiede tempo e risorse che non avrai sempre a disposizione. Stai attento che non tutti i problemi vanno affrontati così in profondità.</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>Sorry, but my hands are tied because they're difficult to replace.</t>
+  </si>
+  <si>
+    <t>Sai che la penso come te ma ho le mani legate perché non so con chi sostituirlo.</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccommodating</t>
+  </si>
+  <si>
+    <t>Has something happened in particular?</t>
+  </si>
+  <si>
+    <t>E' successo qualcosa di particolare?</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompeting</t>
+  </si>
+  <si>
+    <t>You sure? They said the situation in the team is peaceful and lovely.</t>
+  </si>
+  <si>
+    <t>Ha parlato il Peace and Love della situazione.</t>
+  </si>
+  <si>
+    <t>I realize that their attitude is ruining the atmosphere of the team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi rendo conto che il suo atteggiamento sta rovinando il clima della squadra. </t>
+  </si>
+  <si>
+    <t>IPCCompetingCompeting</t>
+  </si>
+  <si>
+    <t>And now you need a shoulder to cry on?</t>
+  </si>
+  <si>
+    <t>PWAvoidingCollaboratingAvoidingLP</t>
+  </si>
+  <si>
+    <t>E adesso hai bisogno di una spalla su cui piangere?</t>
+  </si>
+  <si>
+    <t>The beginning and the end of the conversation are characterized by you ignoring the problem diplomatically and leaving it undealt with.</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaborating</t>
+  </si>
+  <si>
+    <t>Then maybe it's time to talk about it. Do you want to go into more detail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'inizio e la fine del confronto sono caratterizzati dall'ignorare diplomaticamente il problema lasciandolo in sospeso. 
+In alcuni casi, prendere tempo può essere la strategia giusta soprattutto se hai fiducia che i membri del gruppo siano in grado di gestire autonomamente il conflitto. Attenzione ad essere un punto di riferimento nei momenti di incertezza. </t>
+  </si>
+  <si>
+    <t>PWCompetingAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>Allora forse è arrivato il momento di parlarne, vuoi spiegarmi meglio?</t>
+  </si>
+  <si>
+    <t>Starting with little openness, you eventually decided to try and satisfy their demands. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoiding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un approccio maggiormente rivolto ad assecondare le sue richieste. Hai puntato sulla fiducia che il giocatore ripone in te. Non sarebbe l’approccio adeguato se questa fiducia dovesse vacillare o in situazioni che richiedono un maggior approfondimento del problema. </t>
+  </si>
+  <si>
+    <t>Do you want to tell me what you've tried?</t>
+  </si>
+  <si>
+    <t>Hai voglia di raccontarmi che tentativi hai fatto?</t>
+  </si>
+  <si>
+    <t>PWCompetingAccommodatingCompetingLP</t>
+  </si>
+  <si>
+    <t>IPCCompetingCompeting2</t>
+  </si>
+  <si>
+    <t>Starting with little openness, you attempted to comply with their demands, but in the end escalated back to a lack of interest in what they had to say.</t>
+  </si>
+  <si>
+    <t>Aren't you exaggerating a tad?</t>
+  </si>
+  <si>
+    <t>Non ti sembra di esagerare?</t>
+  </si>
+  <si>
+    <t>Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un tentativo maggiormente rivolto ad assecondare le sue richieste che tuttavia non ha avuto seguito con un escalation verso una posizione più ferma. Se devi risolvere la questione avendo poco tempo e dovendo prendere in mano la situazione con incisività per raggiungere l'obiettivo, questo comportamento è il più adeguato. Attenzione a non perdere di vista i bisogni dei tuoi giocatori.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingAccommodating</t>
+  </si>
+  <si>
+    <t>PWAccommodatingCompetingCompetingLP</t>
+  </si>
+  <si>
+    <t>Help me understand when this is happening.</t>
+  </si>
+  <si>
+    <t>After an initial willingness towards discussing the issue, you decided to emphasize your power, leading to the conversation finishing with the problem unaddressed.</t>
+  </si>
+  <si>
+    <t>Aiutami a capire in che occasioni lo fa.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingAvoiding</t>
+  </si>
+  <si>
+    <t>Dopo un' iniziale disponibilità verso il giocatore, hai voluto rimarcare il tuo potere portando a una chiusura con il risultato che il problema non è stato affrontato. 
+Questo ha portato a un’assenza di transazioni con il risultato che il problema non è stato affrontato. Un simile atteggiamento potrebbe essere efficace in situazioni in cui vuoi provocare nell’altro una reazione o problemi più importanti devono essere affrontati e hanno quindi la priorità.</t>
+  </si>
+  <si>
+    <t>I've never notcied...</t>
+  </si>
+  <si>
+    <t>PWAccommodatingCompetingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>Io non me ne sono mai accorto…</t>
+  </si>
+  <si>
+    <t>This conversation opened and closed with you attempting to meet both their demands and that of the rest of the team.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingAccommodating2</t>
+  </si>
+  <si>
+    <t>Lo scambio si apre e si chiude con un atteggiamento volto ad assecondare le richieste del giocatore mettendo da parte il proprio punto di vista e quello della squadra. Questo tipo di comportamento richiede però un monitoraggio successivo della situazione per verificare se il giocatore necessiti di ulteriori indicazioni o supporto.</t>
+  </si>
+  <si>
+    <t>I understand that their attitude is ruining the atmosphere of the team. I'll speak to them directly.</t>
+  </si>
+  <si>
+    <t>Mi rendo che conto che il suo atteggiamento sta rovinando il clima della squadra. Ci parlo io direttamente.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingCollaborating</t>
+  </si>
+  <si>
+    <t>I caught some signs but had not realized the discontent was so widespread. I think it's for the best if I intervene. Do you have any suggestions on what to say to them?</t>
+  </si>
+  <si>
+    <t>Avevo colto qualche segnale ma non avevo compreso fosse così diffuso il malcontento. E' importante che io pensi bene a come intervenire, devo riflettere. Tu hai qualche suggerimento?</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>So, you're telling me three things: that they're an individualist, they have a very critical attitude towards others and they think they can boss everybody about. Wow... It's really like this? What's the most troubling part?</t>
+  </si>
+  <si>
+    <t>Qui mi stai dicendo tre cose diverse: che è un individualista, che ha un atteggiamento molto critico nei confronti degli altri e pensa di poter farvi da insegnante. E' davvero così? Qual è l'aspetto che ti ha infastidito di più?</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>PWCollaboratingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
+    <t>You're the only one that's mentioned {0} behaving like this. Maybe you're exaggerating.</t>
+  </si>
+  <si>
+    <t>Sei l'unico che mi fa notare questi comportamenti di {0}. Forse stai esagerando.</t>
+  </si>
+  <si>
+    <t>You tried to cooperate with the crew member in order to find a solution that meets the needs of all parties involved. This highlighted your intention to explore the problem further.</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingAccommodating</t>
+  </si>
+  <si>
+    <t>Hai cercato di cooperare con il giocatore per trovare una soluzione capace di soddisfare i bisogni di tutte le parti coinvolte. La tua interazione evidenzia attenzione all'esplorazione del conflitto. Stai attento che non sempre avrai il tempo e le risorse per affrontare i problemi così in profondità.</t>
+  </si>
+  <si>
+    <t>Don't worry, I'll talk to them. Do you think a drink together as a team will help defuse the situation?</t>
+  </si>
+  <si>
+    <t>Non ti preoccupare ci parlo io. Che ne pensi se andassimo a bere qualcosa insieme per stemperare un po’ gli animi?</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaborating2</t>
+  </si>
+  <si>
+    <t>When don't they coordinate with others on the team?</t>
+  </si>
+  <si>
+    <t>Quando non si coordina con gli altri. Mi fai un esempio per capire meglio?</t>
+  </si>
+  <si>
+    <t>IPCAvoidingAvoidingResponse</t>
+  </si>
+  <si>
+    <t>Then I guess you'd better start thinking about replacing me.</t>
+  </si>
+  <si>
+    <t>Allora mi sa che è meglio che cominci a pensare a sostituire me.</t>
+  </si>
+  <si>
+    <t>IPCNP11</t>
+  </si>
+  <si>
+    <t>{0} always wants to take charge of the boat.</t>
+  </si>
+  <si>
+    <t>{0} vuole sempre comandare lui la barca.</t>
+  </si>
+  <si>
+    <t>IPCNP21</t>
+  </si>
+  <si>
+    <t>Why do you think the mood of the team is not important?</t>
+  </si>
+  <si>
+    <t>Perché secondo te il clima non è importante in una squadra?</t>
+  </si>
+  <si>
+    <t>IPCNP22</t>
+  </si>
+  <si>
+    <t>What are you going to do?</t>
+  </si>
+  <si>
+    <t>PWCollaboratingCollaboratingAvoidingLP</t>
+  </si>
+  <si>
+    <t>Cosa hai intenzione di fare?</t>
+  </si>
+  <si>
+    <t>At the beginning you tried to cooperate with the crew member, trying to understand their requests, but you closed the dialogue remaining vague and without taking a definite position.</t>
+  </si>
+  <si>
+    <t>IPCCompetingCompetingResponse</t>
+  </si>
+  <si>
+    <t>Wow... I have no words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non ho parole. </t>
+  </si>
+  <si>
+    <t>All'inizio hai provato a cooperare con il giocatore cercando di capire le sue richieste ma hai chiuso il dialogo rimanendo vago senza prendere una posizione precisa. Lasciare la situazione in sospeso può essere efficace solo sei in grado di convincere il giocatore che la responsabilità della propria collocazione in squadra dipende solo da lui e dalle sue capacità.</t>
+  </si>
+  <si>
+    <t>IPCNP31</t>
+  </si>
+  <si>
+    <t>{0} thinks only about themselves and the team is suffering as a result.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sei quasi pronto, fidati che questa volta ce la facciamo. </t>
   </si>
   <si>
+    <t>{0} pensa solo a mettere in luce se stesso e tutta la squadra ne sta risentendo molto.</t>
+  </si>
+  <si>
+    <t>IPCNP41</t>
+  </si>
+  <si>
+    <t>I've tried many different ways, but all fail.</t>
+  </si>
+  <si>
     <t>NotPickedAccommodatingCollaborating</t>
   </si>
   <si>
+    <t xml:space="preserve">Ho provato tante volte a parlarci ma lui si rifiuta. </t>
+  </si>
+  <si>
+    <t>IPCCompetingCompeting2Response</t>
+  </si>
+  <si>
     <t>Then we'll use this opportunity to take stock of the situation. We've set goals, do you feel that you've met them? Am I underestimating you?</t>
   </si>
   <si>
-    <t>Prendiamo questa occasione per fare il punto della situazione. Avavamo fissato degli obiettivi, ritieni di averli araggiunti? Credi che io abbia sottovalutato qualcosa?</t>
+    <t>Not at all, not that you'd know.</t>
+  </si>
+  <si>
+    <t>Non si sembra proprio.</t>
+  </si>
+  <si>
+    <t>IPCNP51</t>
+  </si>
+  <si>
+    <t>Prendiamo questa occasione per fare il punto della situazione. Avevamo fissato degli obiettivi, ritieni di averli raggiunti? Credi che io abbia sottovalutato qualcosa?</t>
+  </si>
+  <si>
+    <t>All the time.</t>
+  </si>
+  <si>
+    <t>Lo fa sempre.</t>
   </si>
   <si>
     <t>NotPickedCollaboratingCollaborating</t>
   </si>
   <si>
+    <t>OOAvoidingAvoidingLP</t>
+  </si>
+  <si>
+    <t>IPCNP52</t>
+  </si>
+  <si>
+    <t>They do it in front of you!</t>
+  </si>
+  <si>
+    <t>E' furbo non lo fa davanti a te.</t>
+  </si>
+  <si>
     <t xml:space="preserve">I fully agree that you have all the skills to do well in the {0} position. But have you looked at the impact putting you in could have on the rest of the team? Putting you into the team should be a gradual process. </t>
   </si>
   <si>
+    <t>IPCAccommodatingAccommodating2Response</t>
+  </si>
+  <si>
+    <t>I don't know if they'll talk to you, but good luck.</t>
+  </si>
+  <si>
+    <t>Non so se basterà parlargli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In questo scambio hai evitato di affrontare il problema posticipandolo. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di non sostenere la motivazione dei giocatori. </t>
+  </si>
+  <si>
     <t>Sono pienamente d'accordo che hai tutte le caratteristiche tecniche per ricoprire quel ruolo. Hai valutato anche l'impatto che potrebbe avere la tua entrata sul clima della squadra in questo momento? Sai che gli altri giocano insieme da una vita e l'inserimento di un nuovo membro va fatto con gradualità.</t>
   </si>
   <si>
+    <t>OOCompetingCompetingLP</t>
+  </si>
+  <si>
+    <t>IPCNP61</t>
+  </si>
+  <si>
     <t>NotPickedCollaboratingAccommodating</t>
   </si>
   <si>
+    <t>In my opinion it is not correct to reward only individual results, as there are other aspects that should be valued in a team.</t>
+  </si>
+  <si>
+    <t>In this exchange the adoption of a sarcastic and uncooperative attitude stopped the dialogue from progressing any further.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondo me non è corretto premiare solo i risultati individiduali ma ci sono altri aspetti da valorizzare dentro una squadra. </t>
+  </si>
+  <si>
     <t>{1} has all the skills to fill that role as well. I can try and alternate who plays?</t>
   </si>
   <si>
+    <t xml:space="preserve">In questo scambio sei rimasto inflessibile sulla tua posizione, convinto di essere nel giusto. Se devi risolvere la questione avendo poco tempo e dovendo prendere in mano la situazione con incisività per raggiungere l'obiettivo, questo comportamento è il più adeguato. Attenzione a non perdere di vista i bisogni dei tuoi giocatori. </t>
+  </si>
+  <si>
+    <t>IPCNP71</t>
+  </si>
+  <si>
     <t>Anche {1} ha tutte le carte in regola per ricoprire quel ruolo. Posso provare a farvi giocare a rotazione.</t>
   </si>
   <si>
+    <t>They cause confusion in the races by giving instructions different from yours.</t>
+  </si>
+  <si>
+    <t>In effetti se proprio te lo devo dire non sopporto che crei confusione dandoci indicazioni durante la gara diverse dalle tue.</t>
+  </si>
+  <si>
     <t>NotPickedAvoidingAvoidingResponse</t>
   </si>
   <si>
@@ -1011,115 +1513,383 @@
     <t>NotPickedCompetingCompetingResponse</t>
   </si>
   <si>
+    <t>OOAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>IPCNP72</t>
+  </si>
+  <si>
     <t>As always you know best...</t>
   </si>
   <si>
+    <t>In this conversation you attempted to suit the demands of the crew member and decided to take direct action to solve the problem. However, this swift act did not allow you to think about whether this was the correct decision.</t>
+  </si>
+  <si>
+    <t>Maybe others never had the courage to tell you.</t>
+  </si>
+  <si>
     <t>Hai sempre ragione tu!</t>
   </si>
   <si>
+    <t>Forse gli altri non hanno mai avuto il coraggio di dirtelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In questo scambio hai adottato un approccio rivolto ad assecondare le richieste del giocatore decidendo di intervenire direttamente per risolvere il problema. Hai puntato sull'ammirazione, il rispetto e la fiducia che il giocatore ha verso di te. Tieni presente che un coach può agire in questo modo se considera le necessità dei giocatori e si comporta in modo coerente e non arbitrario. </t>
+  </si>
+  <si>
     <t>NotPickedNP21</t>
   </si>
   <si>
+    <t>IPCCollaboratingAccommodatingResponse</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCompetingLP</t>
+  </si>
+  <si>
+    <t>You have spoken to them before but it didn't have a lasting impact. Maybe drinks as a team won't resolve the issue either...</t>
+  </si>
+  <si>
+    <t>Overly focusing on the emotional state of the crew member did not let you address the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ci hai parlato altre volte ma l'effetto è durato poco. Forse non è con una birra che coinvolgi la sqaudra sul problema. </t>
+  </si>
+  <si>
+    <t>Il fatto di esserti focalizzato unicamente sullo stato emotivo del giocatore non ti ha permesso di affrontare realmente il problema. Sei sicuro che per la squadra il problema non sia importante? Saresti in grado di trovare il momento opportuno per affrontarlo?</t>
+  </si>
+  <si>
+    <t>IPCNP81</t>
+  </si>
+  <si>
+    <t>OOAvoidingAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>For example, when you give an order, they don't repeat it back to the rest of us.</t>
+  </si>
+  <si>
+    <t>After an initial lack of considering the issue at hand, you decided to accommodate the demands of the crew member without considering the implications of your choice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad esempio se decide di fare una correzione non lo comunica agli altri. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A un' iniziale scarsa considerazione del problema, è seguito un comportamento accomodante rivolto ad assecondare esclusivamente le richieste del giocatore. Questo tipo di comportamento richiede però un monitoraggio successivo della situazione per verificare se il giocatore necessiti di ulteriori indicazioni o supporto. </t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccommodatingAccommodating</t>
+  </si>
+  <si>
     <t>I know that I'm not in top form but I'm still better than {1}.</t>
   </si>
   <si>
+    <t>OOAvoidingAccommodatingAvoidingLP</t>
+  </si>
+  <si>
+    <t>Your prevailing attitude here was to postpone any real action on the issue.</t>
+  </si>
+  <si>
+    <t>Mi rendo che conto che il suo atteggiamento sta rovinando il clima della squadra. Ci parlo io.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'atteggiamento predominante in questo episodio è quello di posticipare il momento di reale intervento sul problema. In alcuni casi, prendere tempo può essere la strategia giusta soprattutto se hai fiducia che i membri del gruppo siano in grado di gestire autonomamente il conflitto. Attenzione ad essere un punto di riferimento nei momenti di incertezza. </t>
+  </si>
+  <si>
+    <t>IPCAvoidingAccommodatingAvoiding</t>
+  </si>
+  <si>
+    <t>OOCompetingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
+    <t>It is almost the end of the season, so bear with them for now and then we'll see how to deal with the situation.</t>
+  </si>
+  <si>
+    <t>After initially trying to ignore the problem, you sought to cooperate with the crew member on finding a way to resolve the problem.</t>
+  </si>
+  <si>
+    <t>Manca poco alla fine del campionato, sopporta e poi vedremo come affrontare la situazione.</t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingCompeting</t>
+  </si>
+  <si>
+    <t>Dopo aver inizialmente tentato di trascurare il problema, hai cercato di cooperare con il giocatore trovando una modalità per approfondire il problema con il resto della squadra. Questo approccio è molto utile per alimentare lo spirito di gruppo e creare una visione comune anche nei momenti di difficoltà. Tieni però a mente che andare in profondità nell'analisi del conflitto può essere molto costoso in termini di tempo e risorse mentali.</t>
+  </si>
+  <si>
     <t>Lo so anch'io che non sono al massimo della forma ma sono comunque meglio di {1}.</t>
   </si>
   <si>
+    <t>I'm only interested in getting results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A me interessano i risultati </t>
+  </si>
+  <si>
     <t>NotPickedAccommodatingAccommodatingResponse</t>
   </si>
   <si>
+    <t>IPCAvoidingCompetingAvoiding</t>
+  </si>
+  <si>
     <t>Thanks, I hope I'm ready for this as well.</t>
   </si>
   <si>
+    <t>For now, use your common sense and try to be patient with them.</t>
+  </si>
+  <si>
     <t>Grazie spero che sia così.</t>
   </si>
   <si>
+    <t>Proprio per questo conto sul tuo buon senso e ti chiedo di portare pazienza</t>
+  </si>
+  <si>
     <t>NotPickedNP31</t>
   </si>
   <si>
+    <t>IPCAvoidingAvoidingAvoiding</t>
+  </si>
+  <si>
     <t>Overall, even though you've never said so, I think I've achieved my goals.</t>
   </si>
   <si>
     <t>Complessivamente mi pare di aver raggiunto gli obiettivi anche se non ho mai avuto un tuo riscontro.</t>
   </si>
   <si>
+    <t>IPCAvoidingAvoidingCompeting</t>
+  </si>
+  <si>
     <t>NotPickedNP41</t>
   </si>
   <si>
+    <t>Nothing, I'm only interested in results.</t>
+  </si>
+  <si>
+    <t>Nulla a me interessano solo i risultati.</t>
+  </si>
+  <si>
     <t>I'm not so sure it would be a bad change for the team.</t>
   </si>
   <si>
+    <t>IPCCompetingCollaboratingCollaborating</t>
+  </si>
+  <si>
     <t>Non è detto che le novità non facciano bene alla squadra.</t>
   </si>
   <si>
+    <t>OOCompetingCollaboratingCompetingLP</t>
+  </si>
+  <si>
     <t>NotPickedCollaboratingAccommodatingResponse</t>
   </si>
   <si>
+    <t>Starting with little openness, you attempted to comply with their demands, but in the end escalated back to a lack of interest in their problems.</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCompeting</t>
+  </si>
+  <si>
+    <t>Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un tentativo di assecondare le sue richieste che tuttavia non ha avuto seguito con un escalation verso una presa di posizione più ferma. Se valuti il problema poco importante o non puoi affrontarlo subito, questo comportamento può risultare efficace, ma solo se il giocatore ha così fiducia in te da convincersi che la tua decisione è la migliore viste le circostanze.</t>
+  </si>
+  <si>
+    <t>But the results don't seem to confirm what you are saying to me.</t>
+  </si>
+  <si>
+    <t>Ma i risultati non sembrano confermare quello che stai dicendo e a me interessano solo quelli.</t>
+  </si>
+  <si>
     <t>To begin with, that sounds fine.</t>
   </si>
   <si>
+    <t>IPCCompetingAvoidingAvoiding</t>
+  </si>
+  <si>
     <t>Per cominciare va bene.</t>
   </si>
   <si>
+    <t>Maybe it wasn't the right time.</t>
+  </si>
+  <si>
+    <t>Magari non era il momento giusto.</t>
+  </si>
+  <si>
     <t>NotPickedAvoidingCompetingCompeting</t>
   </si>
   <si>
+    <t>IPCCompetingAvoidingCompeting</t>
+  </si>
+  <si>
     <t>Don't you get it? Train more!</t>
   </si>
   <si>
+    <t>That sounds like an excuse to me.</t>
+  </si>
+  <si>
+    <t>Mi sembra una scusa.</t>
+  </si>
+  <si>
     <t>Mi sorprende che tu non l'abbia ancora capito, allenati di più.</t>
   </si>
   <si>
+    <t>IPCAccommodatingAccommodatingAccommodating</t>
+  </si>
+  <si>
     <t>NotPickedAvoidingCompetingAvoiding</t>
   </si>
   <si>
+    <t xml:space="preserve">I will pay attention from now on and speak to them if I notice anything. </t>
+  </si>
+  <si>
     <t>You should ask yourself that question.</t>
   </si>
   <si>
+    <t>Fin dal prossimo incontro presterò attenzione e se servirà interverrò io.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingAccommodatingCompromising</t>
+  </si>
+  <si>
     <t>Dovresti chiederlo a te stesso.</t>
   </si>
   <si>
+    <t>OOAccommodatingAvoidingAvoidingLP</t>
+  </si>
+  <si>
+    <t>If we want to deal with the issue you should be more precise. I also have to try and keep the perspective of {0} in mind. Can you tell me about the last time it happened?</t>
+  </si>
+  <si>
     <t>NotPickedCompetingAvoidingAvoiding</t>
   </si>
   <si>
+    <t>After an initial openness to the crew member, you avoided addressing the problem. As a result, you did not consider the needs of your crew member and raised questions about how well you deal with your responsibilities.</t>
+  </si>
+  <si>
+    <t>Se vogliamo affrontare insieme la questione dovresti essere più preciso. Riesci a raccontarmi l'ultimo episodio in cui è successo? Cerca anche di considerare il punto di vista di {0}.</t>
+  </si>
+  <si>
+    <t>Dopo un' iniziale disponibilità verso il giocatore, hai evitato di affrontare il problema. Sei sicuro che negando il tuo intervento il giocatore sia in grado di risolvere la questione autonomamente?</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingAvoidingAvoiding</t>
+  </si>
+  <si>
+    <t>Until you came to see me I didn't understand how I could intervene.</t>
+  </si>
+  <si>
+    <t>Finchè non lo vedo non capisco come potrei intervenire.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingAvoidingAccommodating</t>
+  </si>
+  <si>
     <t>Lasciami pensare.</t>
   </si>
   <si>
+    <t>I'll try to talk to them. They trust me and know what I say is for their sake and that of the team.</t>
+  </si>
+  <si>
+    <t>Proverò a parlargli io. Lui di me si fida e sa che quello che dico è per il bene suo e della squadra.</t>
+  </si>
+  <si>
     <t>NotPickedCompetingAvoidingCompeting</t>
   </si>
   <si>
+    <t>IPCAccommodatingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>In fact, for me what is important is the spirit of collaboration and the ability to maintain a good atmosphere in the team. We must think about activities that could help make us be a stronger group.</t>
+  </si>
+  <si>
+    <t>OOAccommodatingAvoidingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>In this exchange you aimed to meet the requirements of your crew member. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
+  </si>
+  <si>
     <t>I would tell you if you were better than {1}.</t>
   </si>
   <si>
+    <t>In questo scambio hai adottato un approccio rivolto ad assecondare le richieste del giocatore. L’attenzione per i bisogni e le differenze individuali è efficace se anche gli altri membri della squadra accettano e riconoscono il valore di un trattare individualmente alcune questioni senza passare per la condivisione di gruppo.</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
+    <t>Hai cercato di cooperare con il giocatore per trovare una soluzione capace di soddisfare i bisogni di tutte le parti coinvolte. Il tuo approccio tende all'esplorazione del conflitto. Un simile approccio è adeguato quando è necessario definire i problemi e ricercare soluzioni comuni. Tutto questo richiede tempo e risorse che non avrai sempre a disposizione. Stai attento che non tutti i problemi vanno affrontati così in profondità.</t>
+  </si>
+  <si>
+    <t>OOCollaboratingCollaboratingCompetingLP</t>
+  </si>
+  <si>
     <t>Devo dirlo io se sei meglio di {1}.</t>
   </si>
   <si>
+    <t>After an initial attempt to create the conditions required to cooperate with the crew member, you ended the interaction with a critical and judgmental attitude, not effectively addressing the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dopo un iniziale tentativo di creare le condizioni per cooperare con il giocatore, hai chiuso l'interazione con fermezza, non affrontando -di fatto- il problema. 
+Sei sicuro che il problema non meriti di essere gestito in un secondo momento? </t>
+  </si>
+  <si>
     <t>NotPickedAccommodatingCollaboratingCollaborating</t>
   </si>
   <si>
+    <t>NotPickedAvoidingAvoidingLP</t>
+  </si>
+  <si>
     <t>Before the next race, we'll take a bit of time to analyze the issue.</t>
   </si>
   <si>
     <t>Ti va bene se dopo l'allenamento ci prendiamo un po’ di tempo per analizzare la questione.</t>
   </si>
   <si>
+    <t>In questo scambio hai evitato di affrontare il problema posticipandolo. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di non sostenere la motivazione dei giocatori.</t>
+  </si>
+  <si>
     <t>NotPickedAccommodatingCollaboratingAccommodating</t>
   </si>
   <si>
+    <t>NotPickedCompetingCompetingLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In effetti sai che anche per me quello che conta è lo spirito di collaborazione e la capacità di mantenere un buon clima dentro la squadra. Dobbiamo pensare a delle attività che possano aiutarci a ritrovarci come gruppo. </t>
+  </si>
+  <si>
+    <t>In this exchange the adoption of an sarcastic and uncooperative attitude stopped the dialogue from progressing any further.</t>
+  </si>
+  <si>
+    <t>IPCAccommodatingCollaboratingAccommodating</t>
+  </si>
+  <si>
     <t>You should know that you're important, even if I don't always say it. I'll try and be more open about how I think you're doing from now on.</t>
   </si>
   <si>
+    <t>In questo scambio l'adozione di un atteggiamento sarcastico e poco collaborativo interrompe il dialogo. Un simile atteggiamento potrebbe essere efficace in situazioni in cui vuoi provocare nell’altro una reazione o problemi più importanti devono essere affrontati e hanno quindi la priorità.</t>
+  </si>
+  <si>
+    <t>You're right, maybe I underestimated some aspects. I'll try to do what I can.</t>
+  </si>
+  <si>
     <t>Sai che per me tu sei importantissimo anche se magari non te lo dico sempre. Mi impegnerò ad essere più puntuale e preciso nel condividere le mie valutazioni.</t>
   </si>
   <si>
+    <t>NotPickedAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>In this exchange you took an approach that attempted to suit the demands of the crew member.</t>
+  </si>
+  <si>
     <t>NotPickedCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
+    <t>In questo scambio hai adottato un approccio accomodante, puntando sulla fiducia che il giocatore ripone in te. Non sarebbe l’approccio adeguato se questa fiducia dovesse vacillare o in situazioni che richiedono un maggior approfondimento del problema.</t>
+  </si>
+  <si>
     <t>I agree that it's important to innovate with the team. I think I'll try a whole new line-up for the next race...</t>
   </si>
   <si>
-    <t xml:space="preserve">Credo anch'ìo che sia importante introdurre novità nella squadra. La prossima settimana c'è la trasferta, potrei inizare a proporlo agli altri. </t>
+    <t>NotPickedCollaboratingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>Credo anch'ìo che sia importante introdurre novità nella squadra. La prossima settimana c'è la trasferta, potrei iniziare a proporlo agli altri.</t>
   </si>
   <si>
     <t>NotPickedCollaboratingCollaboratingAccommodating</t>
@@ -1128,675 +1898,225 @@
     <t>You're right. We could start rotating who goes in that position?</t>
   </si>
   <si>
+    <t>In this exchange you took an approach that attempted to suit the demands of the crew member and decided to take direct action to solve the problem. However, this swift act did not allow you to think about whether this was the correct decision.</t>
+  </si>
+  <si>
     <t>Hai ragione, potremmo iniziare a farti giocare a rotazione alternandoti con gli altri giocatori.</t>
   </si>
   <si>
+    <t>In questo scambio hai adottato un approccio rivolto ad assecondare le richieste del giocatore decidendo di intervenire direttamente per risolvere il problema. Hai puntato sull'ammirazione, il rispetto e la fiducia che il giocatore ha verso di te. Tieni presente che un coach può agire in questo modo se considera le necessità dei giocatori e si comporta in modo coerente e non arbitrario.</t>
+  </si>
+  <si>
+    <t>Hai ragione forse ho sottovalutato alcuni aspetti…devo recuperare.</t>
+  </si>
+  <si>
     <t>NotPickedAvoidingCompetingCompetingResponse</t>
   </si>
   <si>
+    <t>NotPickedAvoidingCompetingCompetingLP</t>
+  </si>
+  <si>
     <t>You always say that...</t>
   </si>
   <si>
+    <t>The prevailing attitudes in this episode was poor collaboration and an overly excessive focus on the performance of the crew member.</t>
+  </si>
+  <si>
     <t>Mi rispondi sempre la stessa cosa.</t>
   </si>
   <si>
     <t>NotPickedAvoidingCompetingAvoidingResponse</t>
   </si>
   <si>
+    <t>L'atteggiamento prevalente in questo episodio è scarsamente collaborativo e orientato a esprimere un giudizio sul giocatore con esclusiva focalizzazione sulla prestazione. Questo comportamento può essere adeguato quando i giocatori conoscono bene gli obiettivi e hanno chiari i livelli di performance richiesti per raggiungerli. Senza queste condizioni il rischio è di creare incomprensioni tra te e i membri della squadra che potrebbero sentirsi sviliti e non compresi nei loro bisogni.</t>
+  </si>
+  <si>
     <t>If I had the answer, I wouldn't have asked.</t>
   </si>
   <si>
+    <t>NotPickedAvoidingCompetingAvoidingLP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se avevo già la risposta non te lo avrei chiesto. </t>
   </si>
   <si>
+    <t>During this discussion you attempted to delay taking any real acton on the issue.</t>
+  </si>
+  <si>
     <t>NotPickedCompetingAvoidingAvoidingResponse</t>
   </si>
   <si>
+    <t>L'atteggiamento predominante in questo episodio è quello di posticipare il momento di reale intervento sul problema. In alcuni casi, prendere tempo può essere la strategia giusta soprattutto se hai fiducia che i membri del gruppo siano in grado di gestire autonomamente il conflitto. Fai però attenzione a non indurre sfiducia nella squadra circa la tua presenza come leader.</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingAvoidingLP</t>
+  </si>
+  <si>
+    <t>In this exchange you avoided addressing the problem. As a result, you did not consider the needs of your crew member and raised questions about how well you deal with your responsibilities.</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCompromising</t>
+  </si>
+  <si>
+    <t>In questo scambio hai evitato di affrontare il problema posticipandolo. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di abbassare la motivazione dei giocatori.</t>
+  </si>
+  <si>
+    <t>So for the moment we'll leave it here. I'll make it clear to everyone that any questions related to team orders should be asked before or after the race. I also ask you to consider the opinion of {0}.</t>
+  </si>
+  <si>
+    <t>NotPickedCompetingAvoidingCompetingLP</t>
+  </si>
+  <si>
+    <t>You concluded this interaction with a show of power. In the end, this led to the problem not being addressed.</t>
+  </si>
+  <si>
+    <t>Allora per il momento partiamo da qui. Quello che posso fare è di chiarire a tutti che eventuali discussioni relative alle regole vanno trattate prima o dopo la gara. A te chiedo di considerare sullo stesso piano l'opinione di {0}.</t>
+  </si>
+  <si>
+    <t>Hai concluso questa interazione rimarcando il tuo potere. Questo ha portato a un’assenza di transazioni con il risultato che il problema non è stato affrontato. Questo comportamento può essere adeguato quando i giocatori conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di abbassare la motivazione dei giocatori.</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCollaboratingCollaborating</t>
+  </si>
+  <si>
+    <t>NotPickedAccommodatingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
     <t>It'd be nice if you decided straight away for once.</t>
   </si>
   <si>
+    <t>OK, I think we need to come together to figure out what's going wrong in the communication of the instructions I give you and clarify it so this never happens again.</t>
+  </si>
+  <si>
+    <t>You initially adapted to the requests of the crew member and managed to lead the dialogue to discussing the issue further, clarifying the point of view of the crew member.</t>
+  </si>
+  <si>
     <t>Mai una volta che decidi subito.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ok, penso che dobbiamo riunirci per capire cosa non ha funzionato nella comunicazione delle istruzioni che vi ho dato. Chiarito questo verificherò che le regole siano chiare a tutti per evitare altri episodi simili. </t>
+  </si>
+  <si>
+    <t>Inizialmente hai provato ad assecondare le richieste del giocatore, poi nel corso dell'interazione hai creato le condizioni per esplorare la questione, chiarire il punto di vista del giocatore e scambiarvi dei feedback. Tutto questo richiede tempo e risorse che non avrai sempre a disposizione. Stai attento che non tutti i problemi vanno affrontati così in profondità.</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCollaborating</t>
+  </si>
+  <si>
     <t>NotPickedCompetingAvoidingCompetingResponse</t>
   </si>
   <si>
     <t>That's certainly not what I wanted to hear.</t>
   </si>
   <si>
+    <t>I'm suprised, but at this point I think it's for the best if we talk about this as a team next time we get together.</t>
+  </si>
+  <si>
+    <t>NotPickedAccommodatingCollaboratingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>Sono sorpreso ma a questo punto posso pensare di dedicare parte della prossima riunione tecnica a fare una valutazione generale sull'andamento e sul clima della squadra.</t>
+  </si>
+  <si>
     <t>Non è certo questo che voglio mettere in discussione ma qualche volta sarebbe utile ascoltare i giocatori.</t>
   </si>
   <si>
+    <t>In this exchange you took an approach that aimed to meet the requirements of the crew member. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
+  </si>
+  <si>
+    <t>IPCCollaboratingCompetingCompeting</t>
+  </si>
+  <si>
     <t>NotPickedAccommodatingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>Are you telling me you can't talk about it?</t>
+  </si>
+  <si>
+    <t>Mi stai dicendo che non mi si può parlare?</t>
+  </si>
+  <si>
     <t>Sounds great to me!</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaboratingAccommodating</t>
+  </si>
+  <si>
     <t>Bene sono proprio contento!</t>
   </si>
   <si>
+    <t>NotPickedCollaboratingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
+    <t>This is something that should be sorted. Do you think I should do it now individually or later as a team?</t>
+  </si>
+  <si>
     <t>NotPickedAccommodatingCollaboratingAccommodatingResponse</t>
   </si>
   <si>
+    <t>You tried to cooperate with the crew member in order to find an innovative solution that meets the needs of all parties involved. This highlighted your intention to explore the problem further.</t>
+  </si>
+  <si>
+    <t>Questa è una cosa che va risolta. Preferisci che vada subito a parlargli o la affrontiamo durante il prossimo incontro tecnico?</t>
+  </si>
+  <si>
     <t>Thanks, that means a lot to me.</t>
   </si>
   <si>
+    <t>Hai cercato di cooperare con il giocatore per trovare una soluzione innovativa capace di soddisfare i bisogni di tutte le parti coinvolte. La tua interazione evidenzia attenzione all'esplorazione del conflitto. Stai attento che non tutti i problemi vanno affrontati così in profondità.</t>
+  </si>
+  <si>
     <t>Ci tengo, potresti già dirmi qualcosa?</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaborating2Collaborating</t>
+  </si>
+  <si>
+    <t>NotPickedCollaboratingCollaboratingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>Communication is critical to the team performing well. I think it's for the best if we talk about this as a team next time we get together.</t>
+  </si>
+  <si>
     <t>NotPickedCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>You tried to cooperate with the crew member, looking into their request and trying to assess the impact. However, this conversation closed briskly with a compromise that only considered the point of view of the crew member.</t>
+  </si>
+  <si>
+    <t>Questo è un problema. Potrei dedicare il prossimo ritiro per lavorare proprio sulla comunicazione di gruppo.</t>
+  </si>
+  <si>
     <t>That sounds great.</t>
   </si>
   <si>
     <t>Mi sembra un'ottima idea.</t>
   </si>
   <si>
+    <t>IPCAvoidingAccommodatingAccommodatingResponse</t>
+  </si>
+  <si>
+    <t>Hai cercato di cooperare con il giocatore esplorando le sue richieste e cercando di valutare l'impatto. Tuttavia, hai chiuso in modo sbrigativo con una soluzione di compromesso che considera solo il punto di vista del giocatore. L’attenzione per i bisogni e le differenze individuali è efficace se anche gli altri membri della squadra accettano e riconoscono il valore di un trattare individualmente alcune questioni senza passare per la condivisione di gruppo.</t>
+  </si>
+  <si>
+    <t>Let's hope now is a good time to do so.</t>
+  </si>
+  <si>
     <t>NotPickedCollaboratingCollaboratingAccommodatingResponse</t>
   </si>
   <si>
+    <t>IPCAvoidingAvoidingLP</t>
+  </si>
+  <si>
     <t>Let's try.</t>
   </si>
   <si>
+    <t>IPCAvoidingAccommodatingAvoidingResponse</t>
+  </si>
+  <si>
     <t>Proviamoci.</t>
   </si>
   <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>You need to do something, I can't bear {0} any longer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non ce la faccio più a sopportare {0}, devi trovare una soluzione. </t>
-  </si>
-  <si>
-    <t>IPCAvoiding</t>
-  </si>
-  <si>
-    <t>Calm down and tell me why you're upset.</t>
-  </si>
-  <si>
-    <t>Tranquillizzati perché sei così agitato?</t>
-  </si>
-  <si>
-    <t>IPCCompeting</t>
-  </si>
-  <si>
-    <t>This is still an issue?</t>
-  </si>
-  <si>
-    <t>Ancora con questa storia, non l'hai ancora risolta?</t>
-  </si>
-  <si>
-    <t>IPCAccommodating</t>
-  </si>
-  <si>
-    <t>Take a breath and tell me why.</t>
-  </si>
-  <si>
-    <t>Prendi fiato, raccontami?</t>
-  </si>
-  <si>
-    <t>IPCCollaborating</t>
-  </si>
-  <si>
-    <t>Let's talk. What happened?</t>
-  </si>
-  <si>
-    <t>Parliamone un attimo, siediti, cos'è successo?</t>
-  </si>
-  <si>
-    <t>IPCNP1</t>
-  </si>
-  <si>
-    <t>You know that {0} can't stand anybody.</t>
-  </si>
-  <si>
-    <t>Sai che {0} non lo sopporta nessuno.</t>
-  </si>
-  <si>
-    <t>IPCNP2</t>
-  </si>
-  <si>
-    <t>{0} thinks only about themselves and not the good of the team.</t>
-  </si>
-  <si>
-    <t>{0} pensa solo a mettere in luce se stesso e non pensa al bene della squadra.</t>
-  </si>
-  <si>
-    <t>IPCNP3</t>
-  </si>
-  <si>
-    <t>If I'm here talking about it, obviously.</t>
-  </si>
-  <si>
-    <t>Se sono qua non l'ho ancora risolta.</t>
-  </si>
-  <si>
-    <t>IPCNP4</t>
-  </si>
-  <si>
-    <t>I've already tried to resolve this many times before...</t>
-  </si>
-  <si>
-    <t>Io credo di averci provato in tutti i modi…</t>
-  </si>
-  <si>
-    <t>IPCNP5</t>
-  </si>
-  <si>
-    <t>{0} does not miss a chance to criticize me in front of others.</t>
-  </si>
-  <si>
-    <t>{0} non perde occasione per criticarmi davanti agli altri</t>
-  </si>
-  <si>
-    <t>IPCNP6</t>
-  </si>
-  <si>
-    <t>{0} thinks only about themselves and it's reflecting badly on the team.</t>
-  </si>
-  <si>
-    <t>{0} pensa solo a mettere in luce se stesso e tutta la squadra ne sta risentendo molto</t>
-  </si>
-  <si>
-    <t>IPCNP7</t>
-  </si>
-  <si>
-    <t>Today during the race they insulted {1} several times and began to give instructions left, right and centre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oggi durante la gara ha insultato più volte {1} e si è messo a dare istruzioni a destra e a manca. </t>
-  </si>
-  <si>
-    <t>IPCNP8</t>
-  </si>
-  <si>
-    <t>{0} only does what they want and does not bother to coordinate with others.</t>
-  </si>
-  <si>
-    <t>{0} pensa solo a fare il suo e non si preoccupa di coordinarsi con gli altri.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>Sorry, but my hands are tied because they're difficult to replace.</t>
-  </si>
-  <si>
-    <t>Sai che la penso come te ma ho le mani legate perché non so con chi sostituirlo.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodating</t>
-  </si>
-  <si>
-    <t>Has something happened in particular?</t>
-  </si>
-  <si>
-    <t>E' successo qualcosa di particolare?</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>You sure? They said the situation in the team is peaceful and lovely.</t>
-  </si>
-  <si>
-    <t>Ha parlato il Peace and Love della situazione.</t>
-  </si>
-  <si>
-    <t>I realize that their attitude is ruining the atmosphere of the team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi rendo conto che il suo atteggiamento sta rovinando il clima della squadra. </t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting</t>
-  </si>
-  <si>
-    <t>And now you need a shoulder to cry on?</t>
-  </si>
-  <si>
-    <t>E adesso hai bisogno di una spalla su cui piangere?</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>Then maybe it's time to talk about it. Do you want to go into more detail?</t>
-  </si>
-  <si>
-    <t>Allora forse è arrivato il momento di parlarne, vuoi spiegarmi meglio?</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>Do you want to tell me what you've tried?</t>
-  </si>
-  <si>
-    <t>Hai voglia di raccontarmi che tentativi hai fatto?</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting2</t>
-  </si>
-  <si>
-    <t>Aren't you exaggerating a tad?</t>
-  </si>
-  <si>
-    <t>Non ti sembra di esagerare?</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodating</t>
-  </si>
-  <si>
-    <t>Help me understand when this is happening.</t>
-  </si>
-  <si>
-    <t>Aiutami a capire in che occasioni lo fa.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAvoiding</t>
-  </si>
-  <si>
-    <t>I've never notcied...</t>
-  </si>
-  <si>
-    <t>Io non me ne sono mai accorto…</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodating2</t>
-  </si>
-  <si>
-    <t>I understand that their attitude is ruining the atmosphere of the team. I'll speak to them directly.</t>
-  </si>
-  <si>
-    <t>Mi rendo che conto che il suo atteggiamento sta rovindando il clima della squadra. Ci parlo io direttamente.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingCollaborating</t>
-  </si>
-  <si>
-    <t>I caught some signs but had not realized the discontent was so widespread. I think it's for the best if I intervene. Do you have any suggestions on what to say to them?</t>
-  </si>
-  <si>
-    <t>Avevo colto qualche segnale ma non avevo compreso fosse così diffuso il malcontento. E' importante che io pensi bene a come intervenire, devo riflettere. Tu hai qualche suggerimento?</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>So, you're telling me three things: that they're an individualist, they have a very critical attitude towards others and they think they can boss everybody about. Wow... It's really like this? What's the most troubling part?</t>
-  </si>
-  <si>
-    <t>Qui mi stai dicendo tre cose diverse: che è un individualista, che ha un atteggiamento molto critico nei confronti degli altri e pensa di poter farvi da insegnante.  E' davvero così? Qual è l'aspetto che ti ha infastidito di più?</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>You're the only one that's mentioned {0} behaving like this. Maybe you're exaggerating.</t>
-  </si>
-  <si>
-    <t>Sei l'unico che mi fa notare questi comportamenti di {0}. Forse stai esagerando.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccommodating</t>
-  </si>
-  <si>
-    <t>Don't worry, I'll talk to them. Do you think a drink together as a team will help defuse the situation?</t>
-  </si>
-  <si>
-    <t>Non ti preoccupare ci parlo io. Che ne pensi se andassimo a bere qualcosa insieme per stemperare un po’ gli animi?</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating2</t>
-  </si>
-  <si>
-    <t>When don't they coordinate with others on the team?</t>
-  </si>
-  <si>
-    <t>Quando non si coordina con gli altri. Mi fai un esempio per capire meglio?</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingResponse</t>
-  </si>
-  <si>
-    <t>Then I guess you'd better start thinking about replacing me.</t>
-  </si>
-  <si>
-    <t>Allora mi sa che è meglio che cominci a pensare a sostituire me.</t>
-  </si>
-  <si>
-    <t>IPCNP11</t>
-  </si>
-  <si>
-    <t>{0} always wants to take charge of the boat.</t>
-  </si>
-  <si>
-    <t>{0} vuole sempre comandare lui la barca.</t>
-  </si>
-  <si>
-    <t>IPCNP21</t>
-  </si>
-  <si>
-    <t>Why do you think the mood of the team is not important?</t>
-  </si>
-  <si>
-    <t>Perché secondo te il clima non è importante in una squadra?</t>
-  </si>
-  <si>
-    <t>IPCNP22</t>
-  </si>
-  <si>
-    <t>What are you going to do?</t>
-  </si>
-  <si>
-    <t>Cosa hai intenzione di fare?</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompetingResponse</t>
-  </si>
-  <si>
-    <t>Wow... I have no words.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non ho parole. </t>
-  </si>
-  <si>
-    <t>IPCNP31</t>
-  </si>
-  <si>
-    <t>{0} thinks only about themselves and the team is suffering as a result.</t>
-  </si>
-  <si>
-    <t>{0} pensa solo a mettere in luce se stesso e tutta la squadra ne sta risentendo molto.</t>
-  </si>
-  <si>
-    <t>IPCNP41</t>
-  </si>
-  <si>
-    <t>I've tried many different ways, but all fail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ho provato tante volte a parlarci ma lui si rifiuta. </t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting2Response</t>
-  </si>
-  <si>
-    <t>Not at all, not that you'd know.</t>
-  </si>
-  <si>
-    <t>Non si sembra proprio.</t>
-  </si>
-  <si>
-    <t>IPCNP51</t>
-  </si>
-  <si>
-    <t>All the time.</t>
-  </si>
-  <si>
-    <t>Lo fa sempre.</t>
-  </si>
-  <si>
-    <t>IPCNP52</t>
-  </si>
-  <si>
-    <t>They do it in front of you!</t>
-  </si>
-  <si>
-    <t>E' furbo non lo fa davanti a te.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodating2Response</t>
-  </si>
-  <si>
-    <t>I don't know if they'll talk to you, but good luck.</t>
-  </si>
-  <si>
-    <t>Non so se basterà parlargli.</t>
-  </si>
-  <si>
-    <t>IPCNP61</t>
-  </si>
-  <si>
-    <t>In my opinion it is not correct to reward only individual results, as there are other aspects that should be valued in a team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondo me non è corretto premiare solo i risultati individiduali ma ci sono altri aspetti da valorizzare dentro una squadra. </t>
-  </si>
-  <si>
-    <t>IPCNP71</t>
-  </si>
-  <si>
-    <t>They cause confusion in the races by giving instructions different from yours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In effetti se proprio te lo devo dire non sopporto che crei confunsione dandoci indicazioni durante la gara diverse dalle tue. </t>
-  </si>
-  <si>
-    <t>IPCNP72</t>
-  </si>
-  <si>
-    <t>Maybe others never had the courage to tell you.</t>
-  </si>
-  <si>
-    <t>Forse gli altri non hanno mai avuto il coraggio di dirtelo.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccommodatingResponse</t>
-  </si>
-  <si>
-    <t>You have spoken to them before but it didn't have a lasting impact. Maybe drinks as a team won't resolve the issue either...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ci hai parlato altre volte ma l'effetto è durato poco. Forse non è con una birra che coinvolgi la sqaudra sul problema. </t>
-  </si>
-  <si>
-    <t>IPCNP81</t>
-  </si>
-  <si>
-    <t>For example, when you give an order, they don't repeat it back to the rest of us.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad esempio se decide di fare una correzione non lo comunica agli altri. </t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodatingAccommodating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi rendo che conto che il suo atteggiamento sta rovindando il clima della squadra. Ci parlo io. </t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodatingAvoiding</t>
-  </si>
-  <si>
-    <t>It is almost the end of the season, so bear with them for now and then we'll see how to deal with the situation.</t>
-  </si>
-  <si>
-    <t>Manca poco alla fine del campionato, sopporta e poi vedremo come affrontare la situazione.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>I'm only interested in getting results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A me interessano i risultati </t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingAvoiding</t>
-  </si>
-  <si>
-    <t>For now, use your common sense and try to be patient with them.</t>
-  </si>
-  <si>
-    <t>Proprio per questo conto sul tuo buon senso e ti chiedo di portare pazienza</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>Nothing, I'm only interested in results.</t>
-  </si>
-  <si>
-    <t>Nulla a me interessano solo i risultati.</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCompeting</t>
-  </si>
-  <si>
-    <t>But the results don't seem to confirm what you are saying to me.</t>
-  </si>
-  <si>
-    <t>Ma i risultati non sembrano confermare quello che stai dicendo e a me interessano solo quelli.</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>Maybe it wasn't the right time.</t>
-  </si>
-  <si>
-    <t>Magari non era il momento giusto.</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingCompeting</t>
-  </si>
-  <si>
-    <t>That sounds like an excuse to me.</t>
-  </si>
-  <si>
-    <t>Mi sembra una scusa.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodatingAccommodating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I will pay attention from now on and speak to them if I notice anything. </t>
-  </si>
-  <si>
-    <t>Fin dal prossimo incontro presterò attenzione e se servirà interverrò io.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodatingCompromising</t>
-  </si>
-  <si>
-    <t>If we want to deal with the issue you should be more precise. I also have to try and keep the perspective of {0} in mind. Can you tell me about the last time it happened?</t>
-  </si>
-  <si>
-    <t>Se vogliamo affrontare insieme la questione dovresti essere più preciso. Riesci a raccontarmi l'ultimo episodio in cui è successo? Cerca anche di considerare il punto di vista di {0}.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAvoidingAvoiding</t>
-  </si>
-  <si>
-    <t>Until you came to see me I didn't understand how I could intervene.</t>
-  </si>
-  <si>
-    <t>Finchè non lo vedo non capisco come potrei intervenire.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAvoidingAccommodating</t>
-  </si>
-  <si>
-    <t>I'll try to talk to them. They trust me and know what I say is for their sake and that of the team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverò a parlargli io. Lui di me si fida e sa che quelllo che dico è per il bene suo e della squadra. </t>
-  </si>
-  <si>
-    <t>IPCAccommodatingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>In fact, for me what is important is the spirit of collaboration and the ability to maintain a good atmosphere in the team. We must think about activities that could help make us be a stronger group.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In effetti sai che anche per me quello che conta è lo spirito di collaborazione e la capacità di mantenere un buon clima dentro la squadra. Dobbiamo pensare a delle attività che possano aiutarci a ritrovarci  come gruppo. </t>
-  </si>
-  <si>
-    <t>IPCAccommodatingCollaboratingAccommodating</t>
-  </si>
-  <si>
-    <t>You're right, maybe I underestimated some aspects. I'll try to do what I can.</t>
-  </si>
-  <si>
-    <t>Hai ragione forse ho sottovalutato alcuni aspetti…devo recuperare.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCompromising</t>
-  </si>
-  <si>
-    <t>So for the moment we'll leave it here. I'll make it clear to everyone that any questions related to team orders should be asked before or after the race. I also ask you to consider the opinion of {0}.</t>
-  </si>
-  <si>
-    <t>Allora per il momento partiamo da qui. Quello che posso fare è di chiarire a tutti che eventuali discussioni relative alle regole vanno trattate prima o dopo la gara. A te chiedo di considerare sullo stesso piano l'opinionei di {0}.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaborating</t>
-  </si>
-  <si>
-    <t>OK, I think we need to come together to figure out what's going wrong in the communication of the instructions I give you and clarify it so this never happens again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ok, penso che dobbiamo riunirci per capire cosa non ha funzionato nella comunicazione delle istruzioni che vi ho dato.  Chiarito questo verificherò che le regole siano chiare a tutti per evitare altri episodi simili. </t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCollaborating</t>
-  </si>
-  <si>
-    <t>I'm suprised, but at this point I think it's for the best if we talk about this as a team next time we get together.</t>
-  </si>
-  <si>
-    <t>Sono sorpreso ma a questo punto posso pensare di dedicare parte della prossima riunione tecnica a fare una valutazione generale sull'andamento e sul clima della squadra.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCompeting</t>
-  </si>
-  <si>
-    <t>Are you telling me you can't talk about it?</t>
-  </si>
-  <si>
-    <t>Mi stai dicendo che non mi si può parlare?</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingAccommodating</t>
-  </si>
-  <si>
-    <t>This is something that should be sorted. Do you think I should do it now individually or later as a team?</t>
-  </si>
-  <si>
-    <t>Questa è una cosa che va risolta. Preferisci che vada subito a parlargli o la affrontiamo durante il prossimo incontro tecnico?</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaborating2Collaborating</t>
-  </si>
-  <si>
-    <t>Communication is critical to the team performing well. I think it's for the best if we talk about this as a team next time we get together.</t>
-  </si>
-  <si>
-    <t>La comunicazione è fondamentale per il buon funzionamento della squadra. Potrei dedicare il prossimo camp per lavorare su questo punto.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodatingAccommodatingResponse</t>
-  </si>
-  <si>
-    <t>Let's hope now is a good time to do so.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodatingAvoidingResponse</t>
-  </si>
-  <si>
     <t>I do not know if I can wait until then.</t>
   </si>
   <si>
@@ -1809,6 +2129,9 @@
     <t>Remember that, behind the results, there are always people.</t>
   </si>
   <si>
+    <t>IPCCompetingCompetingLP</t>
+  </si>
+  <si>
     <t>Ricordati che dietro ai risultati ci sono sempre delle persone.</t>
   </si>
   <si>
@@ -1830,18 +2153,30 @@
     <t>Ho sopportato abbastanza.</t>
   </si>
   <si>
+    <t>IPCCompetingCompeting2LP</t>
+  </si>
+  <si>
     <t>IPCAvoidingAvoidingCompetingResponse</t>
   </si>
   <si>
+    <t>In this exchange the adoption of a provocative attitude stopped the dialogue from progressing any further.</t>
+  </si>
+  <si>
     <t>You hide behind the results, and you do nothing to change the situation.</t>
   </si>
   <si>
     <t>Ti nascondi dietro i risultati e non fai nulla per cambiare la situazione.</t>
   </si>
   <si>
+    <t>In questo scambio l'adozione di un atteggiamento provocatorio interrompe il dialogo. Un simile atteggiamento potrebbe essere efficace in momenti in cui vuoi indurre una reazione nell’altro per sbloccare la situazione.</t>
+  </si>
+  <si>
     <t>IPCNP311</t>
   </si>
   <si>
+    <t>IPCAccommodatingAccommodating2LP</t>
+  </si>
+  <si>
     <t>I trust you to do what you think is best.</t>
   </si>
   <si>
@@ -1872,36 +2207,60 @@
     <t>IPCAccommodatingAccommodatingAccommodatingResponse</t>
   </si>
   <si>
+    <t>In questo scambio hai adottato un approccio rivolto ad assecondare le richieste del giocatore decidendo di intervenire direttamente per risolvere il problema. Tuttavia in questo modo non hai creato le condizioni per mettere a confronto le parti. L’attenzione per i bisogni e le differenze individuali è efficace se il problema non richiede di essere affrontato in gruppo.</t>
+  </si>
+  <si>
     <t>Thanks! Counting on you.</t>
   </si>
   <si>
     <t>Grazie conto su di te.</t>
   </si>
   <si>
+    <t>IPCCollaboratingAccommodatingLP</t>
+  </si>
+  <si>
     <t>IPCAccommodatingAccommodatingCompromisingResponse</t>
   </si>
   <si>
+    <t>The solution you've proposed risks avoiding the problem. You've thought of leisure activity for the team, but this doesn't allow for further study of the problem or listening to the needs of the crew members.</t>
+  </si>
+  <si>
     <t>You're right, maybe I haven't considered what might have prompted {0} to act like this...</t>
   </si>
   <si>
+    <t>Con la soluzione che hai proposto rischi di eludere il problema. Hai pensato ad un'attività di svago. Ti sei chiesto se la squadra non abbia invece bisogno di un confronto aperto sulla questione?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hai ragione forse non ho considerato cosa possa aver spinto {0} a comportarsi così. </t>
   </si>
   <si>
+    <t>IPCAvoidingAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
     <t>IPCAccommodatingAvoidingAvoidingResponse</t>
   </si>
   <si>
     <t>You'll never see the issue if you never pay proper attention to it...</t>
   </si>
   <si>
-    <t>Se non presti attenzione il rischio è quello di non vedere  mai.</t>
+    <t>The prevailing behaviour in the end was to accommodate the request for help, getting personally involved in the problem without thinking about the merits of doing so.</t>
+  </si>
+  <si>
+    <t>Se non presti attenzione il rischio è quello di non vedere mai.</t>
   </si>
   <si>
     <t>IPCAccommodatingAvoidingAccommodatingResponse</t>
   </si>
   <si>
+    <t>E' prevalso un comportamento accomodante dove ti sei fatto carico in prima persona del problema senza creare le condizioni per entrare nel merito della questione. Hai puntato sulla fiducia che il giocatore ripone in te. Non sarebbe l’approccio adeguato se questa fiducia dovesse vacillare o in situazioni che richiedono un maggior approfondimento del problema.</t>
+  </si>
+  <si>
     <t>You never seem to actually address the problem...</t>
   </si>
   <si>
+    <t>IPCAvoidingAccommodatingAvoidingLP</t>
+  </si>
+  <si>
     <t xml:space="preserve">A voler sempre smorzare gli animi, non si affronta mai il problema. </t>
   </si>
   <si>
@@ -1914,12 +2273,18 @@
     <t>Cosa hai in mente?</t>
   </si>
   <si>
+    <t>In questo scambio hai evitato di affrontare il problema posticipandolo. In questo modo non hai considerato le esigenze del tuo giocatore e al tempo stesso non ti sei interrogato sulle tue responsabilità. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di abbassare la motivazione dei giocatori.</t>
+  </si>
+  <si>
     <t>IPCNP612</t>
   </si>
   <si>
     <t>How?</t>
   </si>
   <si>
+    <t>IPCAvoidingCompetingCompetingLP</t>
+  </si>
+  <si>
     <t>Come intendi recuperare?</t>
   </si>
   <si>
@@ -1929,25 +2294,37 @@
     <t>It will not be easy, but I'll try.</t>
   </si>
   <si>
-    <t xml:space="preserve">Non sarà facile mettere da parte le antipatie  ma conto sul tuo intervento in caso dovessi ricadere in giudizi personali. </t>
+    <t xml:space="preserve">Non sarà facile mettere da parte le antipatie ma conto sul tuo intervento in caso dovessi ricadere in giudizi personali. </t>
+  </si>
+  <si>
+    <t>IPCAvoidingCompetingAvoidingLP</t>
   </si>
   <si>
     <t>IPCCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>After an initial ironic attitude that threatened to cause an aggressive reaction from the crew member, you finished the discussion with an attempt to find a compromise without taking into account the real needs.</t>
+  </si>
+  <si>
     <t>I agree. It won't be easy but I think going in depth will allow us to find a lasting solution.</t>
   </si>
   <si>
     <t>Sono d'accordo, magari non sarà facile ma penso che andare in profondità possa aiutarci a trovare una soluzione duratura.</t>
   </si>
   <si>
+    <t>Ad un iniziale atteggiamento ironico che rischiava di alimentare reazioni aggressive da parte del giocatore, hai chiuso nel tentativo di individuare un compromesso senza tener conto delle reali sue esigenze. Sei sicuro che il problema non sia importante per il giocatore o per la squadra? Saresti in grado di trovare il momento opportuno per affrontarlo individualmente o in gruppo?</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCompetingCollaboratingResponse</t>
   </si>
   <si>
+    <t>IPCAvoidingAvoidingAvoidingLP</t>
+  </si>
+  <si>
     <t>Listening to everybody's opinion should hopefully help.</t>
   </si>
   <si>
-    <t>Probabilemente ascoltare il parere di tutti servirà anche a me.</t>
+    <t>Probabilmente ascoltare il parere di tutti servirà anche a me.</t>
   </si>
   <si>
     <t>IPCCollaboratingCompetingCompetingResponse</t>
@@ -1959,24 +2336,39 @@
     <t>Lo stai dimostrando anche adesso.</t>
   </si>
   <si>
+    <t>IPCAvoidingAvoidingCompetingLP</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCollaboratingAccommodatingResponse</t>
   </si>
   <si>
+    <t>Following a request for direct intervention by the crew member, you reacted abruptly in an effort to emphasize your position, with the result being no collaborative dynamic at all.</t>
+  </si>
+  <si>
     <t>If you decide to treat it with the whole team, you have to manage it well. You can not always please everyone.</t>
   </si>
   <si>
     <t>Se decidi di trattarla con tutta la squadra, devi gestirla bene. Non si può sempre accontentare tutti.</t>
   </si>
   <si>
+    <t>A seguito di una richiesta di intervento diretto da parte del giocatore hai reagito in modo brusco nel tentativo di rimarcare la tua posizione con il risultato di una dinamica per nulla collaborativa. Un simile atteggiamento potrebbe essere efficace in situazioni in cui vuoi provocare nell’altro una reazione o problemi più importanti devono essere affrontati e hanno quindi la priorità.</t>
+  </si>
+  <si>
     <t>IPCNP811</t>
   </si>
   <si>
+    <t>IPCCompetingCollaboratingCompetingLP</t>
+  </si>
+  <si>
     <t>But we have important races soon...</t>
   </si>
   <si>
     <t>Però da qui a un mese abbiamo gare importanti…</t>
   </si>
   <si>
+    <t>In questo scambio l'adozione di un atteggiamento ironico e poco collaborativo interrompe il dialogo. Un simile atteggiamento potrebbe essere efficace in situazioni in cui vuoi provocare nell’altro una reazione o problemi più importanti devono essere affrontati e hanno quindi la priorità.</t>
+  </si>
+  <si>
     <t>IPCCompetingCollaboratingCollaboratingCollaborating</t>
   </si>
   <si>
@@ -1992,7 +2384,7 @@
     <t>Give me some examples of behavior that bothered you and that you think would bother the team. Once that's done, we'll find solutions for them.</t>
   </si>
   <si>
-    <t xml:space="preserve">Comincia a farmi qualche esempio del comportamento di {0} che ti ha infastidito e che secondo te avrebbe infastidito la squadra.  Fatto questo, vediamo di trovare insieme una soluzione che soddisfi le aspettative di ognuno. </t>
+    <t xml:space="preserve">Comincia a farmi qualche esempio del comportamento di {0} che ti ha infastidito e che secondo te avrebbe infastidito la squadra. Fatto questo, vediamo di trovare insieme una soluzione che soddisfi le aspettative di ognuno. </t>
   </si>
   <si>
     <t>IPCAccommodatingCollaboratingCollaboratingCollaborating</t>
@@ -2004,48 +2396,93 @@
     <t>Ti andrebbe di sentire tutti i tuoi compagni per organizzare qualcosa insieme? A me va bene qualsiasi cosa.</t>
   </si>
   <si>
+    <t>IPCCompetingAvoidingAvoidingLP</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingCollaboratingCompromising</t>
   </si>
   <si>
+    <t>After an initial provocative attitude, you essentially evaded the issue completely.</t>
+  </si>
+  <si>
     <t>We'll organize a brief meeting to allow everyone to express their opinion on the performance of the team. There, we'll talk about any changes that need to be made as a result.</t>
   </si>
   <si>
-    <t>Organizziamo un confronto  a breve per permettere ad ognuno di esprimersi rispetto all'andamento della squadra. Lì negozieremo eventuali cambiamenti da introdurre.</t>
+    <t>Dopo un iniziale atteggiamento provocatorio, hai di fatto eluso il problema evitando il conflitto. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di abbassare la motivazione dei giocatori.</t>
+  </si>
+  <si>
+    <t>Organizziamo un confronto a breve per permettere ad ognuno di esprimersi rispetto all'andamento della squadra. Lì negozieremo eventuali cambiamenti da introdurre.</t>
+  </si>
+  <si>
+    <t>IPCCompetingAvoidingCompetingLP</t>
   </si>
   <si>
     <t>IPCAccommodatingCollaboratingAccommodatingAccommodating</t>
   </si>
   <si>
+    <t>In this conversation a competitive and judgmental attitude prevailed.</t>
+  </si>
+  <si>
     <t>Could use the bit of money we have to organise a day of paintballing?</t>
   </si>
   <si>
     <t>Potrei usare i soldi dello sponsor avanzati dall'anno scorso per organizzare una giornata di paintball.</t>
   </si>
   <si>
+    <t>In questo scambio ha prevalso un atteggiamento competitivo nei confronti del giocatore poco orientato al problema e alla persona. Se devi risolvere la questione avendo poco tempo e dovendo prendere in mano la situazione con incisività per raggiungere l'obiettivo, questo comportamento è il più adeguato. Attenzione a non assumere una posizione giudicante perché può offendere l’altro.</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingAccommodatingCompromising</t>
   </si>
   <si>
+    <t>IPCAccommodatingAccommodatingAccommodatingLP</t>
+  </si>
+  <si>
+    <t>You've offered to directly intervene and accepted the crew member's version of events, but in doing so avoided making the situation any worse.</t>
+  </si>
+  <si>
+    <t>In questo scambio ha prevalso un atteggiamento competitivo nei confronti del giocatore poco orientato al problema e alla persona. Se devi risolvere la questione avendo poco tempo e agire con incisività, questo comportamento è il più adeguato. Attenzione a non assumere una posizione giudicante perché può offendere l’altro.</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCollaboratingCollaborating2Collaborating</t>
   </si>
   <si>
+    <t>IPCAccommodatingAccommodatingCompromisingLP</t>
+  </si>
+  <si>
     <t>You're right. In fact, next time we meet up we'll come up with some activities to bring the team back together.</t>
   </si>
   <si>
+    <t>After looking deeper into the issue, you've proposed a solution which has allowed the crew member to consider the situation from the other side.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hai ragione, infatti pensavo di dedicare parte dei prossimi incontri tecnici a preparare le attività per sensibilizzare la squadra. </t>
   </si>
   <si>
+    <t>Dopo aver cercato di approfondire la richiesta del giocatore, hai proposto di trovare una soluzione di compromesso che ha permesso di considerare entrambe le posizioni in gioco. La relazione si conclude con una negoziazione, una sorta di scambio “alla pari” tra te e il giocatore. Questo tipo di comportamento è efficace quando il coach fissa obiettivi e si preoccupa di mantenere gli standard individuati.</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCollaboratingCollaboratingCompromising</t>
   </si>
   <si>
     <t>But you can still give me a hand to help set this up.</t>
   </si>
   <si>
-    <t>Posso pensare di anticiiparlo però tu dammi una mano con l'organizzazione</t>
+    <t>IPCAccommodatingAvoidingAvoidingLP</t>
+  </si>
+  <si>
+    <t>Posso pensare di anticiparlo però tu dammi una mano ad organizzarlo…</t>
+  </si>
+  <si>
+    <t>In questo scambio hai evitato di affrontare il problema posticipandolo e non hai considerato le esigenze del tuo giocatore. Questo comportamento può essere adeguato quando i giocatori sono autonomi perchè conoscono bene gli obiettivi e hanno chiari i ruoli. Senza queste condizioni il rischio è di creare un clima caotico e di abbassare la motivazione dei giocatori.</t>
   </si>
   <si>
     <t>IPCCompetingCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>IPCAccommodatingAvoidingAccommodatingLP</t>
+  </si>
+  <si>
     <t>It can be a good starting point, it is important to have continuity.</t>
   </si>
   <si>
@@ -2055,55 +2492,106 @@
     <t>IPCCompetingCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaboratingCompromisingLP</t>
+  </si>
+  <si>
     <t>Maybe you're right, I got caught up in the emotion of the moment. So, the other day...</t>
   </si>
   <si>
+    <t>You studied the problem and attempted to identify the real causes of the conflict. In doing so, you've managed to find a compromise that can restore the balance in the dynamic between the two crew members.</t>
+  </si>
+  <si>
     <t>Forse hai ragione, mi sono fatto prendere dall'emozione del momento. Meglio guardare ai fatti: per farti un esempio l'altro giorno…</t>
   </si>
   <si>
+    <t>Hai approfondito il problema cercando di identificare le reali cause del conflitto, al tempo stesso ti sei attivato per trovare un compromesso in grado di ristabilire gli equilibri nella dinamica relazionale tra i due giocatori. La relazione si conclude con una negoziazione. Questo tipo di comportamento è efficace quando il coach fissa obiettivi e si preoccupa di mantenere gli standard individuati.</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingCollaboratingCollaboratingResponse</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
     <t>It sounds like a good idea, perhaps being out of the usual routine of the team will help us discover sides of us we did not know.</t>
   </si>
   <si>
+    <t>You created the conditions required to explore the divide further, using the collaboration of the team to find a lasting solution.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mi sembra una buona idea, forse uscire dalla solita routine di squadra potrà farci scoprire lati di noi che non conoscevamo. </t>
   </si>
   <si>
+    <t>Hai creato le condizioni per esplorare e approfondire il disaccordo, cercando la collaborazione della squadra per trovare una soluzione duratura, mettendoti direttamente in gioco. Se devi risolvere la questione avendo poco tempo e dovendo prendere in mano la situazione con incisività per raggiungere l'obiettivo, questo comportamento è il più adeguato.</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingCollaboratingCompromisingResponse</t>
   </si>
   <si>
+    <t>IPCCollaboratingCompetingCollaboratingLP</t>
+  </si>
+  <si>
     <t>It will not be easy but it's worth trying.</t>
   </si>
   <si>
+    <t>You created the conditions required to explore the divide, seeking the involvement of the team to do so.</t>
+  </si>
+  <si>
     <t>Non sarà facile ma vale la pena provare.</t>
   </si>
   <si>
+    <t>Hai creato le condizioni per esplorare e approfondire il disaccordo, cercando il coinvolgimento della squadra. Se devi risolvere la questione avendo poco tempo e dovendo prendere in mano la situazione con incisività per raggiungere l'obiettivo, questo comportamento è il più adeguato.</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingAccommodatingAccommodatingResponse</t>
   </si>
   <si>
+    <t>IPCCollaboratingCompetingCompetingLP</t>
+  </si>
+  <si>
     <t>Great!</t>
   </si>
   <si>
     <t>Grande!</t>
   </si>
   <si>
+    <t>In this conversation you focused on your evaluation of the crew member's opinions and as such neglected to listen to their needs and search for a common solution.</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingAccommodatingCompromisingResponse</t>
   </si>
   <si>
+    <t>In questo scambio ti sei focalizzato sulla valutazione delle opinioni del giocatore e hai trascurato l'ascolto dei suoi bisogni e la ricerca di una soluzione condivisa. Se devi risolvere la questione avendo poco tempo e dovendo prendere in mano la situazione con incisività per raggiungere l'obiettivo, questo comportamento è il più adeguato. Attenzione a non perdere di vista i bisogni dell’altro.</t>
+  </si>
+  <si>
     <t>It will not be easy but I'll put aside my personal resentment and will try.</t>
   </si>
   <si>
+    <t>IPCCollaboratingCollaboratingAccommodatingLP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non sarà facile dovrò mettere da parte il mio risentimento personale, ma voglio provarci. </t>
   </si>
   <si>
+    <t>Delegating the crew member the decision on what action to take, you demonstrated an accommodating behavior, bringing the needs of others into the forefront.</t>
+  </si>
+  <si>
     <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingResponse</t>
   </si>
   <si>
+    <t>Lasciando al giocatore la possibilità di scelta, stai dimostrando un comportamento accomodante. Attenzione a motivare maggiormente la tua opinione per evitare che il giocatore ti percepisca poco interessato a risolvere il problema.</t>
+  </si>
+  <si>
     <t>Let's try!</t>
   </si>
   <si>
-    <t>Proviamici!</t>
+    <t>Proviamoci!</t>
+  </si>
+  <si>
+    <t>IPCCompetingCollaboratingCollaboratingCollaboratingLP</t>
+  </si>
+  <si>
+    <t>You were very careful to look deeply into the problem and have proposed the beginning of a solution.</t>
   </si>
   <si>
     <t>IPCCollaboratingCollaboratingCollaboratingCompromisingResponse</t>
@@ -2112,460 +2600,10 @@
     <t>OK, but not alone.</t>
   </si>
   <si>
-    <t>Ok però non da solo.</t>
-  </si>
-  <si>
-    <t>PWAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>In this conversation you avoided addressing the problem. As a result, you did not consider the needs of your crew member and raised questions about how well you deal with your responsibilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In questo scambio hai evitato di affrontare il problema posticipandolo. In questo modo non hai considerato le esigenze del tuo giocatore e al tempo stesso non ti sei interrogato sulle tue responsabilità. </t>
-  </si>
-  <si>
-    <t>PWCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>Your forceful remarks led to the conversation finishing without the issue being addressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il rimarcare il tuo potere ha portato a una chiusura con il risultato che il problema non è stato affrontato. </t>
-  </si>
-  <si>
-    <t>PWAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>In this conversation you aimed to adapt to the requirements of the crew member. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In questo scambio hai adottao un approccio rivolto ad assecondare le richieste del giocatore. Questo se da un lato ha portato alla sua soddisfazione, dall'altro denota un arrendersi al punto di vista dell'altro. </t>
-  </si>
-  <si>
-    <t>PWCollaboratingAvoidingLP</t>
-  </si>
-  <si>
-    <t>At the beginning you tried to cooperate with the crew member and understand their requests, but in the end you finished the conversation remaining vague and not taking a definite position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All'inizio hai provato a cooperare con il giocatore cercando di capire le sue richieste ma hai chiuso il dialogo rimanendo vago senza prendere una posizione precisa. </t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>After initially trying to delay dealing with the problem, you sought to cooperate with the crew member in order to find a solution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopo aver inizialmente tentato di posticipare il problema, hai cercato di cooperare con il giocatore concordando un momento di scambio per trovare una soluzione. </t>
-  </si>
-  <si>
-    <t>PWAvoidingCollaboratingAvoidingLP</t>
-  </si>
-  <si>
-    <t>The beginning and the end of the conversation are characterized by you ignoring the problem diplomatically and leaving it undealt with.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'inizio e la fine del confronto sono caratterizzati dall'ignorare diplomaticamente il problema lascinadolo in sospeso. </t>
-  </si>
-  <si>
-    <t>PWCompetingAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>Starting with little openness, you eventually decided to try and satisfy their demands. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un approccio maggiormente rivolto ad assecondare le sue richieste. Questo se da un lato ha portato alla soddisfazione del giocatore, dall'altro denota una arrendersi al punto di vista dell'altro. </t>
-  </si>
-  <si>
-    <t>PWCompetingAccommodatingCompetingLP</t>
-  </si>
-  <si>
-    <t>Starting with little openness, you attempted to comply with their demands, but in the end escalated back to a lack of interest in what they had to say.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad un inizio caratterizzato da scarsa apertura verso il giocatore, è seguito un tentativo maggiormente rivolto ad assecondare le sue richieste che tuttavia non ha avuto seguito con un escalation verso un atteggiamento di disinteresse e sufficienza. </t>
-  </si>
-  <si>
-    <t>PWAccommodatingCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>After an initial willingness towards discussing the issue, you decided to emphasize your power, leading to the conversation finishing with the problem unaddressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopo un' iniziale disponibilità verso il giocatore,  hai voluto rimarcare il tuo potere portando a una chiusura con il risultato che il problema non è stato affrontato. </t>
-  </si>
-  <si>
-    <t>PWAccommodatingCompetingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>This conversation opened and closed with you attempting to meet both their demands and that of the rest of the team.</t>
-  </si>
-  <si>
-    <t>Lo scambio si apre e si chiude con un atteggiamento volto ad assecondare le richieste del giocatore mettendo da parte il proprio punto di vista e quello della squadra.</t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>You tried to cooperate with the crew member in order to find a solution that meets the needs of all parties involved. This highlighted your intention to explore the problem further.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai cercato di cooperare con il giocatore per trovare una soluzione capace di soddisfare i bisogni di tutte le parti coinvolte. La tua interazione evidenzia attenzione all'esplorazione del conflitto. </t>
-  </si>
-  <si>
-    <t>PWCollaboratingCollaboratingAvoidingLP</t>
-  </si>
-  <si>
-    <t>At the beginning you tried to cooperate with the crew member, trying to understand their requests, but you closed the dialogue remaining vague and without taking a definite position.</t>
-  </si>
-  <si>
-    <t>OOAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>OOCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>In this exchange the adoption of a sarcastic and uncooperative attitude stopped the dialogue from progressing any further.</t>
-  </si>
-  <si>
-    <t>In questo scambio l'adozione di un atteggiamento ironico e poco collaborativo interrompe il dialogo.</t>
-  </si>
-  <si>
-    <t>OOAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>In this conversation you attempted to suit the demands of the crew member and decided to take direct action to solve the problem. However, this swift act did not allow you to think about whether this was the correct decision.</t>
-  </si>
-  <si>
-    <t>In questo scambio hai adottao un approccio rivolto ad assecondare le richieste del giocatore decidendo di intervenire direttamente per risolvere il problema. Tuttavia in questo modo non hai creato le condizioni per mettere a confronto le parti.</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCompetingLP</t>
-  </si>
-  <si>
-    <t>Overly focusing on the emotional state of the crew member did not let you address the problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il fatto di esserti focalizzato unicamente sullo stato emotivo del giocatore non ti ha permesso di affrontare realmente il problema. </t>
-  </si>
-  <si>
-    <t>OOAvoidingAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>After an initial lack of considering the issue at hand, you decided to accommodate the demands of the crew member without considering the implications of your choice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A un' iniziale scarsa considerazione del problema, è seguito un comportamento accomodanate rivolto ad assecondare esclusivamente  le richieste del giocatore senza entrare nel merito delle implicazione della scelta. </t>
-  </si>
-  <si>
-    <t>OOAvoidingAccommodatingAvoidingLP</t>
-  </si>
-  <si>
-    <t>Your prevailing attitude here was to postpone any real action on the issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'atteggiamento predominante in questo episodio è quello di posticipare il momento di reale intervento sul problema. </t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>After initially trying to ignore the problem, you sought to cooperate with the crew member on finding a way to resolve the problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopo aver inizialmente tentato di trascurare il problema, hai cercato di cooperare con il giocatore trovando una modalità per approfondire il problema.  </t>
-  </si>
-  <si>
-    <t>OOCompetingCollaboratingCompetingLP</t>
-  </si>
-  <si>
-    <t>Starting with little openness, you attempted to comply with their demands, but in the end escalated back to a lack of interest in their problems.</t>
-  </si>
-  <si>
-    <t>OOAccommodatingAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>After an initial openness to the crew member, you avoided addressing the problem. As a result, you did not consider the needs of your crew member and raised questions about how well you deal with your responsibilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopo un iniziale disponibilità verso il giocatore, hai evitato di affrontare il problema.  In questo modo non hai considerato le esigenze del tuo giocatore e al tempo stesso non ti sei interrogato sulle tue responsabilità. </t>
-  </si>
-  <si>
-    <t>OOAccommodatingAvoidingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>In this exchange you aimed to meet the requirements of your crew member. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai cercato di cooperare con il giocatore per trovare una soluzione capace di soddisfare i bisogni di tutte le parti coinvolte. Il tuo approccio tende all'esplorazione del conflitto. </t>
-  </si>
-  <si>
-    <t>OOCollaboratingCollaboratingCompetingLP</t>
-  </si>
-  <si>
-    <t>After an initial attempt to create the conditions required to cooperate with the crew member, you ended the interaction with a critical and judgmental attitude, not effectively addressing the problem.</t>
-  </si>
-  <si>
-    <t>Dopo un iniziale tentativo di creare le condizioni per cooperare con il giocatore, hai chiuso l'interazione con un atteggiamento critico e giudicante, non affrontando di fatto il problema.</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>In this exchange the adoption of an sarcastic and uncooperative attitude stopped the dialogue from progressing any further.</t>
-  </si>
-  <si>
-    <t>In questo scambio l'adozione di un atteggiamento sarcastico e poco collaborativo interrompe il dialogo.</t>
-  </si>
-  <si>
-    <t>NotPickedAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>In this exchange you took an approach that attempted to suit the demands of the crew member.</t>
-  </si>
-  <si>
-    <t>In questo scambio hai adottao un approccio accomodante, puntando sulla generosità e assecondando le richieste del giocatore,</t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>In this exchange you took an approach that attempted to suit the demands of the crew member and decided to take direct action to solve the problem. However, this swift act did not allow you to think about whether this was the correct decision.</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>The prevailing attitudes in this episode was poor collaboration and an overly excessive focus on the performance of the crew member.</t>
-  </si>
-  <si>
-    <t>L'atteggiamento prevalente in questo episodio è scarsamente collaborativo e orientato a esprimere un giudizio sul giocatore con esclusiva focalizzazione sulla prestazione.</t>
-  </si>
-  <si>
-    <t>NotPickedAvoidingCompetingAvoidingLP</t>
-  </si>
-  <si>
-    <t>During this discussion you attempted to delay taking any real acton on the issue.</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>In this exchange you avoided addressing the problem. As a result, you did not consider the needs of your crew member and raised questions about how well you deal with your responsibilities.</t>
-  </si>
-  <si>
-    <t>NotPickedCompetingAvoidingCompetingLP</t>
-  </si>
-  <si>
-    <t>You concluded this interaction with a show of power. In the end, this led to the problem not being addressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai concluso questa interazione rimarcando il tuo potere. Questo ha portato a una chiusura con il risultato che il problema non è stato affrontato. </t>
-  </si>
-  <si>
-    <t>NotPickedAccommodatingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>You initially adapted to the requests of the crew member and managed to lead the dialogue to discussing the issue further, clarifying the point of view of the crew member.</t>
-  </si>
-  <si>
-    <t>Inizialmente hai provato ad assecondare le richieste del giocatore, poi nel corso dell'interazione hai creato le condizioni per esplorare la questione, chiarire il punto di vista del giocatore e scambiarvi dei feedback.</t>
-  </si>
-  <si>
-    <t>NotPickedAccommodatingCollaboratingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>In this exchange you took an approach that aimed to meet the requirements of the crew member. Whilst this led to their satisfaction, it also meant that you surrendered to their point of view.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In questo scambio hai cercato un compromesso volto ad assecondare le richieste del giocatore. Questo se da un lato ha portato alla sua soddisfazione, dall'altro denota un arrendersi al punto di vista dell'altro. </t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>You tried to cooperate with the crew member in order to find an innovative solution that meets the needs of all parties involved. This highlighted your intention to explore the problem further.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai cercato di cooperare con il giocatore per trovare una soluzione innovativa capace di soddisfare i bisogni di tutte le parti coinvolte. La tua interazione evidenzia attenzione all'esplorazione del conflitto. </t>
-  </si>
-  <si>
-    <t>NotPickedCollaboratingCollaboratingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>You tried to cooperate with the crew member, looking into their request and trying to assess the impact. However, this conversation closed briskly with a compromise that only considered the point of view of the crew member.</t>
-  </si>
-  <si>
-    <t>Hai cercato di cooperare con il giocatore esplorando le sue richieste e cercando di valutare l'impatto. Tuttavia, hai chiuso in modo sbrigativo con una soluzione di compromesso che considera solo il punto di vista del giocatore.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>IPCCompetingCompeting2LP</t>
-  </si>
-  <si>
-    <t>In this exchange the adoption of a provocative attitude stopped the dialogue from progressing any further.</t>
-  </si>
-  <si>
-    <t>In questo scambio l'adozione di un atteggiamento provocatorio interrompe il dialogo.</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodating2LP</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>The solution you've proposed risks avoiding the problem. You've thought of leisure activity for the team, but this doesn't allow for further study of the problem or listening to the needs of the crew members.</t>
-  </si>
-  <si>
-    <t>Con la soluzione che hai proposto rischi di eludere il problema. Hai pensato ad un'attività di svago per la squadra ma in realtà non l'hai finalizzata all'approfondimento del problema e all'ascolto dei bisogni dei giocatori.</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>The prevailing behaviour in the end was to accommodate the request for help, getting personally involved in the problem without thinking about the merits of doing so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E' prevalso un comportamento accomodanate dove ti sei fatto carico in prima persona del problema senza creare le condizioni per entrare nel merito della questione. </t>
-  </si>
-  <si>
-    <t>IPCAvoidingAccommodatingAvoidingLP</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>IPCAvoidingCompetingAvoidingLP</t>
-  </si>
-  <si>
-    <t>After an initial ironic attitude that threatened to cause an aggressive reaction from the crew member, you finished the discussion with an attempt to find a compromise without taking into account the real needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad un iniziale atteggiamento ironico che rischiava di alimentare reazioni aggressive da parte del giocatore, hai chiuso nel tentativo di individuare un compromesso senza tener conto delle reali sue esigenze. </t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>IPCAvoidingAvoidingCompetingLP</t>
-  </si>
-  <si>
-    <t>Following a request for direct intervention by the crew member, you reacted abruptly in an effort to emphasize your position, with the result being no collaborative dynamic at all.</t>
-  </si>
-  <si>
-    <t>A seguito di una richiesta di intervento diretto da parte del giocatore hai reagito in modo brusco nel tentativo di rimarcare la tua posizione con il risultato di una dinamica per nulla collaborativa.</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCompetingLP</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>After an initial provocative attitude, you essentially evaded the issue completely.</t>
-  </si>
-  <si>
-    <t>Dopo un iniziale atteggiamento provocatorio, hai di fatto eluso il problema evitando il conflitto.</t>
-  </si>
-  <si>
-    <t>IPCCompetingAvoidingCompetingLP</t>
-  </si>
-  <si>
-    <t>In this conversation a competitive and judgmental attitude prevailed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In questo scambio ha prevalso un atteggiamento competitivo e giudicante nei confronti del giocatore poco orientato al problema e alla persona. </t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodatingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>You've offered to directly intervene and accepted the crew member's version of events, but in doing so avoided making the situation any worse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ti sei offerto di intervenire direttamente limitandoti ad accogliere solo la visione del giocatore ma in questo modo non hai stimolato il confronto tra le parti coinvolte. </t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAccommodatingCompromisingLP</t>
-  </si>
-  <si>
-    <t>After looking deeper into the issue, you've proposed a solution which has allowed the crew member to consider the situation from the other side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopo aver cercato di approfondire la richiesta del giocatore, hai proposto di cercare una soluzione di compromesso che gli ha permesso di considerare la posizione dell'altro. </t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAvoidingAvoidingLP</t>
-  </si>
-  <si>
-    <t>IPCAccommodatingAvoidingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCompromisingLP</t>
-  </si>
-  <si>
-    <t>You studied the problem and attempted to identify the real causes of the conflict. In doing so, you've managed to find a compromise that can restore the balance in the dynamic between the two crew members.</t>
-  </si>
-  <si>
-    <t>Hai approfondito il propblema cercando di identificare le reali cause del conflitto, al tempo stesso ti sei attivato per trovare un compromesso in grado di ristabilire gli equilibri nella dinamica relazionale tra i due giocatori.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>You created the conditions required to explore the divide further, using the collaboration of the team to find a lasting solution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai creato le condizioni per esplorare e approfondire il disaccordo, cercando la collaborazione della squadra per trovare una soluzione duratura, mettendoti direttamente in gioco. </t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>You created the conditions required to explore the divide, seeking the involvement of the team to do so.</t>
-  </si>
-  <si>
-    <t>Hai creato le condizioni per esplorare e approfondire il disaccordo, cercando il coinvolgimento della squadra.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCompetingCompetingLP</t>
-  </si>
-  <si>
-    <t>In this conversation you focused on your evaluation of the crew member's opinions and as such neglected to listen to their needs and search for a common solution.</t>
-  </si>
-  <si>
-    <t>In questo scambio ti sei focalizzato sulla valutazione delle opinioni del giocatore e hai trascurato l'ascolto dei suoi bisogni e la ricerca di una soluzione condivisa.</t>
-  </si>
-  <si>
-    <t>IPCCollaboratingCollaboratingAccommodatingLP</t>
-  </si>
-  <si>
-    <t>Delegating the crew member the decision on what action to take, you demonstrated an accommodating behavior, bringing the needs of others into the forefront.</t>
-  </si>
-  <si>
-    <t>Delegando al giocatore la decisione su che azione intraprendere, stai dimostrando un comportamento accomodante. In questo modo rischi di mettere in primo piano solo i bisogni altrui.</t>
-  </si>
-  <si>
-    <t>IPCCompetingCollaboratingCollaboratingCollaboratingLP</t>
-  </si>
-  <si>
-    <t>You were very careful to look deeply into the problem and have proposed the beginning of a solution.</t>
-  </si>
-  <si>
-    <t>Ti sei dimostrato molto attento a creare condizioni sia di clima sia di approfondimento del problema proponendole con una certa gradualità.</t>
+    <t>Ti sei dimostrato molto attento a creare condizioni sia di clima sia di approfondimento del problema proponendole con una certa gradualità. Tutto questo richiede tempo e risorse che non avrai sempre a disposizione. Stai attento che non tutti i problemi vanno affrontati così in profondità.</t>
+  </si>
+  <si>
+    <t>E' una possibilità, ci sto! Tu però trova qualcuno che possa darmi una mano.</t>
   </si>
   <si>
     <t>IPCCompetingCollaboratingCollaboratingCompromisingLP</t>
@@ -2574,7 +2612,7 @@
     <t>After an initial provocation, you interacted collaboratively to find a compromise that can lead to an agreed solution.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dopo un'iniziale provocazione, hai interagito collaborativamente per trovare un compromesso capace di portare ad una soluzione condivisa. </t>
+    <t>Dopo un'iniziale provocazione, hai cercato di affrontare il problema cercando di approfondire le cause del conflitto. Questo è il punto di partenza per trovare un compromesso capace di mettere d'accordo tutte le parti. Il confronto si conclude con una negoziazione, una sorta di scambio “alla pari” tra te e il giocatore. Questo tipo di comportamento è efficace quando il coach fissa obiettivi e si preoccupa di mantenere gli standard individuati.</t>
   </si>
   <si>
     <t>IPCAccommodatingCollaboratingCollaboratingCollaboratingLP</t>
@@ -2583,7 +2621,7 @@
     <t>You tried to address the problem by proposing a moment of collaboration with the entire team, with the idea being to investigate any issues that may exist.</t>
   </si>
   <si>
-    <t>Hai cercato di affrontare il problema proponendo un momento di collaborazione con l'intera squadra con l'idea di approfondire i bisogni di tutti i componenti.</t>
+    <t>Hai cercato di affrontare il problema proponendo un momento di collaborazione con l'intera squadra con l'idea di approfondire i bisogni di tutti i componenti. Tutto questo richiede tempo e risorse che non avrai sempre a disposizione. Stai attento che non tutti i problemi vanno affrontati così in profondità.</t>
   </si>
   <si>
     <t>IPCAccommodatingCollaboratingCollaboratingCompromisingLP</t>
@@ -2592,7 +2630,7 @@
     <t>You tried to address the problem by proposing a discussion with the entire team, with the idea being to ​​find a mutual compromise.</t>
   </si>
   <si>
-    <t>Hai cercato di affrontare il problema proponendo un momento di condivisione con l'intera squadra con l'idea di trovare un compromesso capace di mettere d'accordo tutte le parti.</t>
+    <t>Hai cercato di affrontare il problema proponendo un momento di condivisione con l'intera squadra con l'idea di trovare un compromesso capace di mettere d'accordo tutte le parti. Il confronto si conclude con una negoziazione, una sorta di scambio “alla pari” tra te e il giocatore. Questo tipo di comportamento è efficace quando il coach fissa obiettivi e si preoccupa di mantenere gli standard individuati.</t>
   </si>
   <si>
     <t>IPCAccommodatingCollaboratingAccommodatingAccommodatingLP</t>
@@ -2601,13 +2639,17 @@
     <t>The solution you've proposed risks circumventing the problem. You thought of a leisure activity for the team, but this doesn't allow for further study of the problem and listening to the needs of the crew members.</t>
   </si>
   <si>
+    <t>Con la soluzione che hai proposto rischi di eludere il problema. 
+Hai pensato ad un'attività di svago per la squadra ma in realtà non l'hai finalizzata all'approfondimento del problema e all'ascolto dei bisogni dei giocatori. Ti sei chiesto se la squadra non abbia invece bisogno di un confronto aperto sulla questione?</t>
+  </si>
+  <si>
     <t>IPCAccommodatingCollaboratingAccommodatingCompromisingLP</t>
   </si>
   <si>
     <t>You decided to organize a meeting with the whole team in order to explore issues and any possible solutions for them.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hai pensato di organizzare una situazione di confronto allargato all'intera squadra con l'obiettivo di approfondire il problema e individuare una soluzione di compromesso. </t>
+    <t>Hai cercato di affrontare il problema proponendo un momento di condivisione con l'intera squadra con l'obiettivo di approfondire il problema e trovare un compromesso capace di mettere d'accordo tutte le parti. Il confronto si conclude con una negoziazione, una sorta di scambio “alla pari” tra te e il giocatore. Questo tipo di comportamento è efficace quando il coach fissa obiettivi e si preoccupa di mantenere gli standard individuati.</t>
   </si>
   <si>
     <t>IPCCollaboratingCollaboratingCollaborating2CollaboratingLP</t>
@@ -2622,7 +2664,7 @@
     <t>You tried to address the problem with a team activity, with the idea being to investigate the needs of all team members. Furthermore, you've bought in the crew member who first mentioned the problem to help resolve them.</t>
   </si>
   <si>
-    <t>Hai cercato di affrontare il problema proponendo un momento di collaborazione con l'intera squadra con l'idea di coinvolgere tutti i componenti e hai costruito un compromesso con il giocatore per la realizzazione dell'iniziativa che hai proposto.</t>
+    <t>Hai cercato di affrontare il problema proponendo un momento di collaborazione con l'intera squadra con l'idea di coinvolgere tutti i componenti. Il confronto si conclude con una negoziazione, una sorta di scambio “alla pari” tra te e il giocatore che ha permesso di trovare un compromesso con il giocatore per la realizzazione dell'iniziativa che hai proposto. Questo tipo di comportamento è efficace quando il coach fissa obiettivi e si preoccupa di mantenere gli standard individuati.</t>
   </si>
   <si>
     <t>InterviewIntro</t>
@@ -2709,118 +2751,118 @@
     <t>RoleRevealBad</t>
   </si>
   <si>
+    <t>RecruitBody</t>
+  </si>
+  <si>
     <t>You don't want to put me in as {0}, I won't do very well.</t>
   </si>
   <si>
+    <t>You excel at exercise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non mettermi nel ruolo di {0}, non sarei adatto. </t>
   </si>
   <si>
     <t>OpinionRevealPositiveAnswer</t>
   </si>
   <si>
+    <t>Tu ti distingui per le tue capacità atletiche</t>
+  </si>
+  <si>
     <t>I somewhat get along with {0}.</t>
   </si>
   <si>
+    <t>RecruitPerception</t>
+  </si>
+  <si>
     <t>Vado abbastanza d'accordo con {0}.</t>
   </si>
   <si>
+    <t>You are aware of your surroundings</t>
+  </si>
+  <si>
     <t>OpinionRevealNegativeAnswer</t>
   </si>
   <si>
+    <t>Sei molto attento a tutto quello che accade intorno a te</t>
+  </si>
+  <si>
     <t>Myself and {0} aren't on the best of terms.</t>
   </si>
   <si>
+    <t>RecruitQuickness</t>
+  </si>
+  <si>
     <t>Io e {0} non siamo proprio migliori amici</t>
   </si>
   <si>
+    <t>You are the first to react in a situation</t>
+  </si>
+  <si>
     <t>OpinionRevealPositiveHigh</t>
   </si>
   <si>
+    <t>Hai buona capacità di reazione</t>
+  </si>
+  <si>
     <t>I'm good friends with {0}.</t>
   </si>
   <si>
     <t>{0} è un buon amico/a</t>
   </si>
   <si>
+    <t>RecruitWillpower</t>
+  </si>
+  <si>
+    <t>You keep calm whilst under heavy pressure</t>
+  </si>
+  <si>
     <t>OpinionRevealNegativeHigh</t>
   </si>
   <si>
     <t>I don't get along with {0} at all.</t>
   </si>
   <si>
+    <t>Sai mantenere la calma nelle situazioni di stress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non vado assolutamente d'accordo con {0} </t>
   </si>
   <si>
+    <t>RecruitWisdom</t>
+  </si>
+  <si>
+    <t>You are the one people look toward for decisions</t>
+  </si>
+  <si>
     <t>OpinionRevealPositiveNone</t>
   </si>
   <si>
+    <t>Hai buona capacità decisionale</t>
+  </si>
+  <si>
     <t>Nobody comes to mind.</t>
   </si>
   <si>
     <t xml:space="preserve">Non mi viene in mente nessuno. </t>
   </si>
   <si>
+    <t>RecruitCharisma</t>
+  </si>
+  <si>
+    <t>You talk and others listen to every word</t>
+  </si>
+  <si>
     <t>OpinionRevealNegativeNone</t>
   </si>
   <si>
+    <t>Sai farti ascoltare dagli altri</t>
+  </si>
+  <si>
     <t>None come to mind, thankfully.</t>
   </si>
   <si>
     <t xml:space="preserve">Non mi viene in mente nessuno, per fortuna. </t>
-  </si>
-  <si>
-    <t>RecruitBody</t>
-  </si>
-  <si>
-    <t>You excel at exercise</t>
-  </si>
-  <si>
-    <t>Tu ti distingui per le tue capacità atletiche</t>
-  </si>
-  <si>
-    <t>RecruitPerception</t>
-  </si>
-  <si>
-    <t>You are aware of your surroundings</t>
-  </si>
-  <si>
-    <t>Sei molto attento a tutto quello che accade intorno a te</t>
-  </si>
-  <si>
-    <t>RecruitQuickness</t>
-  </si>
-  <si>
-    <t>You are the first to react in a situation</t>
-  </si>
-  <si>
-    <t>Hai buona capacità di reazione</t>
-  </si>
-  <si>
-    <t>RecruitWillpower</t>
-  </si>
-  <si>
-    <t>You keep calm whilst under heavy pressure</t>
-  </si>
-  <si>
-    <t>Sai mantenere la calma nelle situazioni di stress</t>
-  </si>
-  <si>
-    <t>RecruitWisdom</t>
-  </si>
-  <si>
-    <t>You are the one people look toward for decisions</t>
-  </si>
-  <si>
-    <t>Hai buona capacità decisionale</t>
-  </si>
-  <si>
-    <t>RecruitCharisma</t>
-  </si>
-  <si>
-    <t>You talk and others listen to every word</t>
-  </si>
-  <si>
-    <t>Sai farti ascoltare dagli altri</t>
   </si>
   <si>
     <t>StrongAgree</t>
@@ -2893,7 +2935,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2906,88 +2948,132 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2997,31 +3083,31 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -8343,7 +8429,7 @@
       <c r="B3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8354,18 +8440,18 @@
       <c r="B4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8376,7 +8462,7 @@
       <c r="B6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8387,7 +8473,7 @@
       <c r="B7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8398,7 +8484,7 @@
       <c r="B8" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8406,7 +8492,7 @@
       <c r="A9" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -8420,18 +8506,18 @@
       <c r="B10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8442,29 +8528,29 @@
       <c r="B12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8475,7 +8561,7 @@
       <c r="B15" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8486,29 +8572,29 @@
       <c r="B16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>162</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8516,10 +8602,10 @@
       <c r="A19" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8527,10 +8613,10 @@
       <c r="A20" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8538,10 +8624,10 @@
       <c r="A21" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8549,10 +8635,10 @@
       <c r="A22" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8560,10 +8646,10 @@
       <c r="A23" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8574,7 +8660,7 @@
       <c r="B24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -8582,10 +8668,10 @@
       <c r="A25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8596,7 +8682,7 @@
       <c r="B26" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8607,7 +8693,7 @@
       <c r="B27" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8618,29 +8704,29 @@
       <c r="B28" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8648,10 +8734,10 @@
       <c r="A31" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8662,29 +8748,29 @@
       <c r="B32" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>204</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8692,10 +8778,10 @@
       <c r="A35" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8703,10 +8789,10 @@
       <c r="A36" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8717,7 +8803,7 @@
       <c r="B37" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8728,7 +8814,7 @@
       <c r="B38" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8736,10 +8822,10 @@
       <c r="A39" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>221</v>
       </c>
     </row>
@@ -8750,7 +8836,7 @@
       <c r="B40" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8758,10 +8844,10 @@
       <c r="A41" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8769,10 +8855,10 @@
       <c r="A42" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8809,13 +8895,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8823,10 +8909,10 @@
       <c r="A3" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8834,21 +8920,21 @@
       <c r="A4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8859,51 +8945,51 @@
       <c r="B6" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>249</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>253</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8914,7 +9000,7 @@
       <c r="B11" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8925,7 +9011,7 @@
       <c r="B12" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>261</v>
       </c>
     </row>
@@ -8936,7 +9022,7 @@
       <c r="B13" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8944,319 +9030,319 @@
       <c r="A14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>268</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>270</v>
+      <c r="C15" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>271</v>
+      <c r="A16" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>273</v>
+        <v>416</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>275</v>
+        <v>423</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>276</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>277</v>
+      <c r="A18" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>278</v>
+        <v>440</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>279</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>282</v>
+      <c r="A19" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>285</v>
+      <c r="A20" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>286</v>
+      <c r="A21" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>287</v>
+        <v>455</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>288</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>289</v>
+      <c r="A22" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>290</v>
+        <v>475</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>291</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>294</v>
+      <c r="A23" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
-        <v>295</v>
+      <c r="A24" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>297</v>
+        <v>498</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>298</v>
+      <c r="A25" s="11" t="s">
+        <v>501</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>300</v>
+        <v>504</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>303</v>
+      <c r="A26" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>306</v>
+        <v>519</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>309</v>
+        <v>526</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>311</v>
+      <c r="C29" s="12" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>312</v>
+        <v>545</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>313</v>
+        <v>550</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>314</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>316</v>
+      <c r="A31" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>560</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>317</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>318</v>
+      <c r="A32" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>320</v>
+        <v>568</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>321</v>
+        <v>574</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>323</v>
+        <v>576</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>326</v>
+      <c r="A34" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>329</v>
+      <c r="A35" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>332</v>
+      <c r="A36" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>335</v>
+      <c r="A37" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
-        <v>336</v>
+      <c r="A38" s="11" t="s">
+        <v>616</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>338</v>
+        <v>617</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>341</v>
+      <c r="A39" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>344</v>
+      <c r="A40" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>347</v>
+      <c r="A41" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>350</v>
+      <c r="A42" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9292,1158 +9378,1158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>353</v>
+      <c r="A2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>356</v>
+      <c r="A3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>359</v>
+      <c r="A4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>362</v>
+        <v>282</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>365</v>
+      <c r="A6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>368</v>
+        <v>289</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>371</v>
+        <v>292</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>374</v>
+        <v>295</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>377</v>
+        <v>298</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>380</v>
+        <v>303</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>383</v>
+        <v>306</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>386</v>
+        <v>311</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>389</v>
+        <v>318</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>390</v>
+      <c r="A15" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>392</v>
+        <v>325</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>395</v>
+        <v>327</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>396</v>
+      <c r="A17" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>398</v>
+        <v>331</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>400</v>
+      <c r="A18" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>403</v>
+      <c r="A19" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>404</v>
+      <c r="A20" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>406</v>
+        <v>341</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>409</v>
+      <c r="A21" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>412</v>
+      <c r="A22" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>415</v>
+        <v>358</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>418</v>
+        <v>361</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>421</v>
+        <v>367</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>424</v>
+        <v>372</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>425</v>
+      <c r="A27" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>427</v>
+        <v>375</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>428</v>
+      <c r="A28" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>430</v>
+        <v>379</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>433</v>
+        <v>384</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>436</v>
+      <c r="A30" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>439</v>
+        <v>389</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>442</v>
+        <v>393</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>445</v>
+        <v>396</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>448</v>
+        <v>398</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>451</v>
+        <v>404</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>454</v>
+        <v>407</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>457</v>
+        <v>411</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>460</v>
+        <v>415</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>463</v>
+        <v>419</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>466</v>
+        <v>425</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>469</v>
+        <v>429</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>472</v>
+        <v>435</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>475</v>
+        <v>442</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>478</v>
+        <v>454</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>481</v>
+        <v>464</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>484</v>
+        <v>470</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>486</v>
+        <v>474</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B48" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="50">
+      <c r="A50" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>489</v>
+      <c r="A51" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>499</v>
+      <c r="A52" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
-        <v>500</v>
+      <c r="A53" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>424</v>
+        <v>372</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="s">
-        <v>501</v>
+      <c r="A54" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>503</v>
+        <v>512</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
-        <v>504</v>
+      <c r="A55" s="12" t="s">
+        <v>515</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>506</v>
+        <v>517</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>509</v>
+      <c r="A56" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>512</v>
+        <v>525</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>515</v>
+        <v>533</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>518</v>
+        <v>538</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>521</v>
+        <v>541</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>524</v>
+        <v>546</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>527</v>
+        <v>567</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
-        <v>528</v>
+      <c r="A63" s="12" t="s">
+        <v>600</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>530</v>
+        <v>602</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
-        <v>531</v>
+      <c r="A64" s="12" t="s">
+        <v>607</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>533</v>
+        <v>610</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>536</v>
+      <c r="A65" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>539</v>
+      <c r="A66" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>540</v>
+        <v>628</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>542</v>
+        <v>631</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>545</v>
+      <c r="A68" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="C69" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>550</v>
+        <v>652</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>553</v>
+        <v>656</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>556</v>
+        <v>660</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>559</v>
+        <v>663</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>562</v>
+        <v>667</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>565</v>
+        <v>672</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>553</v>
+        <v>676</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>569</v>
+        <v>677</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>572</v>
+        <v>680</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>575</v>
+        <v>683</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>578</v>
+        <v>688</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>580</v>
+        <v>694</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>695</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>581</v>
+        <v>697</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>584</v>
+        <v>698</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>587</v>
+        <v>703</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>590</v>
+        <v>707</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>593</v>
+        <v>711</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>596</v>
+        <v>715</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>598</v>
+        <v>720</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>722</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>599</v>
+        <v>723</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>602</v>
+        <v>724</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>605</v>
+        <v>728</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>608</v>
+        <v>733</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="s">
-        <v>609</v>
+      <c r="A91" s="12" t="s">
+        <v>738</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>611</v>
+        <v>739</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>613</v>
+      <c r="A92" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>742</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>614</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>617</v>
+        <v>744</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="8" t="s">
-        <v>618</v>
+        <v>748</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>620</v>
+        <v>750</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>623</v>
+        <v>754</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
-        <v>624</v>
+        <v>759</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>620</v>
+        <v>750</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>627</v>
+      <c r="A97" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>630</v>
+      <c r="A98" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>633</v>
+        <v>774</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="8" t="s">
-        <v>634</v>
+        <v>778</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>636</v>
+        <v>780</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>639</v>
+        <v>784</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>642</v>
+        <v>790</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>645</v>
+        <v>796</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="8" t="s">
-        <v>646</v>
+        <v>801</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>648</v>
+        <v>803</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>650</v>
+        <v>807</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>809</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>651</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>653</v>
+        <v>813</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>814</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>654</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -10464,7 +10550,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="53.0"/>
     <col customWidth="1" min="2" max="2" width="42.43"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
+    <col customWidth="1" min="3" max="3" width="43.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10480,739 +10566,739 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>657</v>
+        <v>270</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>658</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>660</v>
+        <v>300</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>661</v>
+        <v>310</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>663</v>
+        <v>312</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>664</v>
+        <v>314</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>666</v>
+        <v>315</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>667</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>669</v>
+        <v>321</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>670</v>
+        <v>337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>672</v>
+        <v>339</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>673</v>
+        <v>343</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>675</v>
+        <v>345</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>676</v>
+        <v>350</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>678</v>
+        <v>352</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>679</v>
+        <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>681</v>
+        <v>359</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>682</v>
+        <v>364</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>684</v>
+        <v>366</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>685</v>
+        <v>378</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>686</v>
+        <v>381</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>687</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>688</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>666</v>
+        <v>402</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>657</v>
+        <v>424</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>691</v>
+        <v>434</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>693</v>
+        <v>438</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>694</v>
+        <v>453</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>696</v>
+        <v>456</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>697</v>
+        <v>463</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>699</v>
+        <v>465</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>700</v>
+        <v>469</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>702</v>
+        <v>471</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>703</v>
+        <v>476</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>705</v>
+        <v>477</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>706</v>
+        <v>481</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>708</v>
+        <v>483</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>709</v>
+        <v>507</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>678</v>
+        <v>509</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>711</v>
+        <v>532</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>713</v>
+        <v>535</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>714</v>
+        <v>548</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>663</v>
+        <v>549</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>716</v>
+        <v>552</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>717</v>
+        <v>381</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>720</v>
+        <v>554</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>657</v>
+        <v>559</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>722</v>
+        <v>564</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>724</v>
+        <v>566</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>727</v>
+        <v>573</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>728</v>
+        <v>577</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>696</v>
+        <v>581</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
-        <v>730</v>
+      <c r="A30" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>732</v>
+        <v>588</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
-        <v>733</v>
+      <c r="A31" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>705</v>
+        <v>595</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>657</v>
+      <c r="A32" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
-        <v>737</v>
+      <c r="A33" s="11" t="s">
+        <v>603</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>739</v>
+        <v>604</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
-        <v>740</v>
+      <c r="A34" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>742</v>
+        <v>611</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
-        <v>743</v>
+      <c r="A35" s="11" t="s">
+        <v>619</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>745</v>
+        <v>622</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
-        <v>746</v>
+      <c r="A36" s="11" t="s">
+        <v>630</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>748</v>
+        <v>633</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>749</v>
+      <c r="A37" s="11" t="s">
+        <v>639</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>751</v>
+        <v>642</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B51" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="21" t="s">
-        <v>757</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="20" t="s">
+      <c r="C51" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="B52" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C52" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="13" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="B53" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="C53" s="24" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="13" t="s">
-        <v>769</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="B48" s="8" t="s">
+    <row r="54">
+      <c r="A54" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="B54" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="B50" s="8" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B55" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="C56" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="C53" s="11" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="B57" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="C57" s="24" t="s">
         <v>789</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="13" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>796</v>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="9" t="s">
         <v>797</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
-        <v>800</v>
+      <c r="A60" s="9" t="s">
+        <v>804</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>802</v>
+        <v>806</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
-        <v>803</v>
+      <c r="A61" s="9" t="s">
+        <v>811</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>805</v>
+        <v>812</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>808</v>
+      <c r="A62" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
-        <v>809</v>
+      <c r="A63" s="9" t="s">
+        <v>820</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>811</v>
+        <v>821</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
-        <v>812</v>
+      <c r="A64" s="9" t="s">
+        <v>823</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>814</v>
+        <v>824</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="s">
-        <v>815</v>
+      <c r="A65" s="9" t="s">
+        <v>826</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>760</v>
+        <v>827</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
-        <v>817</v>
+      <c r="A66" s="9" t="s">
+        <v>829</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>819</v>
+        <v>830</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
-        <v>820</v>
+      <c r="A67" s="9" t="s">
+        <v>832</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>811</v>
+        <v>833</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="s">
-        <v>822</v>
+      <c r="A68" s="9" t="s">
+        <v>834</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>824</v>
+        <v>835</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -11249,178 +11335,178 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>826</v>
+        <v>837</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>838</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>829</v>
+        <v>840</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>841</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>832</v>
+        <v>843</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>844</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>835</v>
+        <v>846</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>847</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>838</v>
+        <v>849</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>850</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>841</v>
+        <v>852</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>853</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>844</v>
+        <v>855</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>856</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>847</v>
+        <v>858</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>859</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>850</v>
+        <v>861</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>862</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>853</v>
+        <v>864</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>866</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>856</v>
+        <v>869</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>871</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>859</v>
+        <v>875</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>877</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>862</v>
+        <v>881</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>883</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>865</v>
+        <v>887</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>888</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>868</v>
+        <v>893</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>895</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>871</v>
+        <v>899</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>901</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -16372,123 +16458,123 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>874</v>
+        <v>865</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>867</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>877</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B4" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>880</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>883</v>
+        <v>885</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>886</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>886</v>
+        <v>891</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>892</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>889</v>
+        <v>897</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>898</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>892</v>
+        <v>903</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>904</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>894</v>
+        <v>906</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>906</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>896</v>
+        <v>908</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>908</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>899</v>
+        <v>910</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>911</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>902</v>
+        <v>913</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>914</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
